--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -808,16 +808,16 @@
         <v>3.85</v>
       </c>
       <c r="H3" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I3" t="n">
         <v>3.05</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
         <v>4.8</v>
@@ -1216,13 +1216,13 @@
         <v>1.79</v>
       </c>
       <c r="I6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q6" t="n">
         <v>1.63</v>
@@ -1354,7 +1354,7 @@
         <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>6.8</v>
@@ -1375,7 +1375,7 @@
         <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="G11" t="n">
         <v>3.05</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G12" t="n">
         <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="I12" t="n">
         <v>8.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>1.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>4.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>1.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>1.98</v>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H17" t="n">
         <v>5.2</v>
@@ -2725,7 +2725,7 @@
         <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -679,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -700,7 +700,7 @@
         <v>1.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G3" t="n">
         <v>3.85</v>
@@ -814,10 +814,10 @@
         <v>3.05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>2.74</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2.94</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G7" t="n">
         <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
         <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G8" t="n">
         <v>4.9</v>
       </c>
       <c r="H8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="I8" t="n">
         <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G9" t="n">
         <v>2.14</v>
       </c>
       <c r="H9" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="I9" t="n">
         <v>8.800000000000001</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.05</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.55</v>
-      </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="K11" t="n">
         <v>950</v>
@@ -2020,7 +2020,7 @@
         <v>1.61</v>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H12" t="n">
         <v>6.2</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q12" t="n">
         <v>2</v>
@@ -2155,7 +2155,7 @@
         <v>1.79</v>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
@@ -2164,7 +2164,7 @@
         <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>950</v>
@@ -2185,7 +2185,7 @@
         <v>1.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
         <v>1.82</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G15" t="n">
         <v>3.9</v>
@@ -2563,7 +2563,7 @@
         <v>5.3</v>
       </c>
       <c r="H16" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="I16" t="n">
         <v>1.95</v>
@@ -2725,7 +2725,7 @@
         <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -670,16 +670,16 @@
         <v>1.83</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -700,7 +700,7 @@
         <v>1.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>2.14</v>
       </c>
       <c r="H9" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="I9" t="n">
         <v>8.800000000000001</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="H11" t="n">
-        <v>2.38</v>
+        <v>2.76</v>
       </c>
       <c r="I11" t="n">
         <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.78</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q11" t="n">
         <v>1.8</v>
@@ -2023,13 +2023,13 @@
         <v>1.76</v>
       </c>
       <c r="H12" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
         <v>4.3</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>21</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="n">
         <v>970</v>
@@ -2257,7 +2257,7 @@
         <v>970</v>
       </c>
       <c r="AO13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H14" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G16" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="I16" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -679,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -808,7 +808,7 @@
         <v>3.85</v>
       </c>
       <c r="H3" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
         <v>3.05</v>
@@ -817,7 +817,7 @@
         <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>2.32</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H4" t="n">
         <v>3.45</v>
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="I7" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1483,16 +1483,16 @@
         <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="I8" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
         <v>2.04</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q11" t="n">
         <v>1.8</v>
@@ -2020,19 +2020,19 @@
         <v>1.61</v>
       </c>
       <c r="G12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I12" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>1.86</v>
       </c>
       <c r="G13" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="H13" t="n">
         <v>3.75</v>
@@ -2164,10 +2164,10 @@
         <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.18</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.2</v>
       </c>
       <c r="J15" t="n">
         <v>3.5</v>
@@ -2470,10 +2470,10 @@
         <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -2482,7 +2482,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
         <v>28</v>
@@ -2497,7 +2497,7 @@
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
         <v>1.9</v>
@@ -2695,19 +2695,19 @@
         <v>1.98</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H17" t="n">
         <v>5.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
         <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -676,25 +676,25 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P2" t="n">
         <v>1.55</v>
@@ -703,76 +703,76 @@
         <v>2.44</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G4" t="n">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
       <c r="H4" t="n">
         <v>3.45</v>
@@ -952,7 +952,7 @@
         <v>2.68</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
         <v>2.78</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>2.16</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>3.7</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="H9" t="n">
-        <v>1.93</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="H13" t="n">
         <v>3.75</v>
@@ -2167,7 +2167,7 @@
         <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="G15" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="I15" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
         <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2452,7 +2452,7 @@
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q15" t="n">
         <v>2.1</v>
@@ -2470,40 +2470,40 @@
         <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB15" t="n">
         <v>13</v>
       </c>
-      <c r="AA15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
         <v>19</v>
@@ -2512,22 +2512,22 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL15" t="n">
         <v>55</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AO15" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16">
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q16" t="n">
         <v>1.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>3.15</v>
@@ -688,7 +688,7 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
         <v>2.64</v>
@@ -709,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.66</v>
+        <v>2.06</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>1.66</v>
       </c>
       <c r="I3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.05</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
         <v>1.67</v>
@@ -838,82 +838,82 @@
         <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.34</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J4" t="n">
         <v>2.82</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.68</v>
-      </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.01</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>2.66</v>
       </c>
       <c r="H6" t="n">
-        <v>1.81</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>1.95</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>2.58</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>1.44</v>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>1.78</v>
       </c>
       <c r="H7" t="n">
-        <v>2.78</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.76</v>
+        <v>1.15</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,37 +1463,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.6</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.77</v>
+        <v>2.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.82</v>
+        <v>2.46</v>
       </c>
       <c r="G9" t="n">
-        <v>1.99</v>
+        <v>2.62</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.58</v>
+        <v>1.82</v>
       </c>
       <c r="G11" t="n">
-        <v>2.96</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="n">
-        <v>2.76</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,42 +2138,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="G13" t="n">
-        <v>2.28</v>
+        <v>2.96</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>2.76</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,58 +2206,58 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="G14" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.65</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>2.26</v>
       </c>
       <c r="H15" t="n">
-        <v>2.24</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.28</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.4</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AO15" t="n">
-        <v>19.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.8</v>
+        <v>1.93</v>
       </c>
       <c r="G16" t="n">
-        <v>5.6</v>
+        <v>2.04</v>
       </c>
       <c r="H16" t="n">
-        <v>1.83</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.94</v>
+        <v>4.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,135 +2668,405 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>St Mirren</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Banfield</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F19" t="n">
         <v>1.98</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="G19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H19" t="n">
         <v>5.2</v>
       </c>
-      <c r="I17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="I19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.3</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q19" t="n">
         <v>2.8</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -679,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -805,16 +805,16 @@
         <v>2.06</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
         <v>1.66</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
         <v>950</v>
@@ -844,16 +844,16 @@
         <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
         <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -940,10 +940,10 @@
         <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
         <v>7.2</v>
@@ -958,13 +958,13 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>1.45</v>
+        <v>2.22</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="P4" t="n">
         <v>1.45</v>
@@ -973,73 +973,73 @@
         <v>2.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,19 +1075,19 @@
         <v>1.4</v>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="H5" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>1.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
         <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1123,7 +1123,7 @@
         <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
         <v>2.66</v>
@@ -1252,7 +1252,7 @@
         <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
         <v>1.32</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="G7" t="n">
         <v>1.78</v>
@@ -1351,13 +1351,13 @@
         <v>4.8</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>2.12</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.15</v>
+        <v>1.51</v>
       </c>
       <c r="R7" t="n">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>1.02</v>
+        <v>2.26</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
         <v>2.28</v>
@@ -1495,94 +1495,94 @@
         <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
         <v>2.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>2.62</v>
       </c>
       <c r="H9" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
         <v>3.05</v>
@@ -1627,19 +1627,19 @@
         <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
         <v>2.1</v>
@@ -1648,82 +1648,82 @@
         <v>1.76</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="G10" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.82</v>
+        <v>3.95</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>2.02</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>1.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.61</v>
+        <v>2.58</v>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>2.96</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>2.76</v>
       </c>
       <c r="I14" t="n">
-        <v>7.4</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2413,37 +2413,37 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="G15" t="n">
-        <v>2.26</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2548,37 +2548,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1.93</v>
       </c>
       <c r="G16" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,64 +2611,64 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.6</v>
+        <v>1.87</v>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.26</v>
+        <v>4.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,260 +2813,395 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="G18" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>1.83</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>1.94</v>
+        <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S18" t="n">
         <v>3.85</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>St Mirren</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Banfield</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="F20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I20" t="n">
         <v>5.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>3.1</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="K20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.8</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -679,10 +679,10 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -694,7 +694,7 @@
         <v>2.64</v>
       </c>
       <c r="O2" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="P2" t="n">
         <v>1.55</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.06</v>
+        <v>2.9</v>
       </c>
       <c r="G3" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.66</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.67</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
         <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
@@ -961,7 +961,7 @@
         <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="O4" t="n">
         <v>1.59</v>
@@ -985,10 +985,10 @@
         <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="X4" t="n">
         <v>8.199999999999999</v>
@@ -1090,7 +1090,7 @@
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1099,7 +1099,7 @@
         <v>2.46</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
         <v>1.08</v>
@@ -1483,7 +1483,7 @@
         <v>4.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I8" t="n">
         <v>1.91</v>
@@ -1519,10 +1519,10 @@
         <v>2.44</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
         <v>2.08</v>
@@ -1549,7 +1549,7 @@
         <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1756,7 +1756,7 @@
         <v>1.65</v>
       </c>
       <c r="I10" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
@@ -1774,10 +1774,10 @@
         <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q10" t="n">
         <v>2.1</v>
@@ -1786,13 +1786,13 @@
         <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
         <v>2.28</v>
@@ -1801,7 +1801,7 @@
         <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
         <v>7.6</v>
@@ -1852,7 +1852,7 @@
         <v>180</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11">
@@ -1888,112 +1888,112 @@
         <v>4.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
         <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
         <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V11" t="n">
         <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD11" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15</v>
-      </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK11" t="n">
         <v>60</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>85</v>
-      </c>
       <c r="AL11" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G12" t="n">
-        <v>1.98</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2302,97 +2302,97 @@
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2440,94 +2440,94 @@
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q15" t="n">
         <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -2560,43 +2560,43 @@
         <v>1.93</v>
       </c>
       <c r="G16" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
         <v>4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T16" t="n">
         <v>1.66</v>
@@ -2605,10 +2605,10 @@
         <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I17" t="n">
         <v>4.7</v>
@@ -2707,19 +2707,19 @@
         <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2728,76 +2728,76 @@
         <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -2839,13 +2839,13 @@
         <v>2.28</v>
       </c>
       <c r="J18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.5</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2857,7 +2857,7 @@
         <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q18" t="n">
         <v>2.14</v>
@@ -2881,37 +2881,37 @@
         <v>1.36</v>
       </c>
       <c r="X18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z18" t="n">
         <v>13</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>14</v>
-      </c>
       <c r="AA18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>42</v>
@@ -2926,7 +2926,7 @@
         <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
         <v>46</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="I19" t="n">
-        <v>1.94</v>
+        <v>2.36</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,125 +3083,395 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G20" t="n">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
         <v>5.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>St Mirren</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.45</v>
       </c>
-      <c r="L20" t="n">
+      <c r="K21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Estudiantes Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N22" t="n">
         <v>0</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O22" t="n">
         <v>0</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P22" t="n">
         <v>1.45</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q22" t="n">
         <v>2.8</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R22" t="n">
         <v>0</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T22" t="n">
         <v>0</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U22" t="n">
         <v>0</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W22" t="n">
         <v>0</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X22" t="n">
         <v>0</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y22" t="n">
         <v>0</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z22" t="n">
         <v>0</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA22" t="n">
         <v>0</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB22" t="n">
         <v>0</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC22" t="n">
         <v>0</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD22" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE22" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF22" t="n">
         <v>0</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG22" t="n">
         <v>0</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH22" t="n">
         <v>0</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ22" t="n">
         <v>0</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK22" t="n">
         <v>0</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL22" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM22" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN22" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -817,7 +817,7 @@
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -841,13 +841,13 @@
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.56</v>
@@ -946,10 +946,10 @@
         <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
@@ -961,7 +961,7 @@
         <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O4" t="n">
         <v>1.59</v>
@@ -988,7 +988,7 @@
         <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>8.199999999999999</v>
@@ -1210,16 +1210,16 @@
         <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
         <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
         <v>3.5</v>
@@ -1255,16 +1255,16 @@
         <v>1.71</v>
       </c>
       <c r="V6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X6" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
         <v>26</v>
@@ -1273,22 +1273,22 @@
         <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
         <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
@@ -1492,7 +1492,7 @@
         <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1522,10 +1522,10 @@
         <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
         <v>1.27</v>
@@ -1891,10 +1891,10 @@
         <v>2.04</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
         <v>3.7</v>
@@ -2155,13 +2155,13 @@
         <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2173,13 +2173,13 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
         <v>2.38</v>
@@ -2188,76 +2188,76 @@
         <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL13" t="n">
         <v>29</v>
       </c>
-      <c r="Z13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>38</v>
-      </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -2302,7 +2302,7 @@
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2326,7 +2326,7 @@
         <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
         <v>1.6</v>
@@ -2341,7 +2341,7 @@
         <v>1.51</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
         <v>14.5</v>
@@ -2452,7 +2452,7 @@
         <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
         <v>2.14</v>
@@ -2461,7 +2461,7 @@
         <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="T15" t="n">
         <v>2.1</v>
@@ -2482,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA15" t="n">
         <v>270</v>
@@ -2557,70 +2557,70 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="R16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.37</v>
       </c>
-      <c r="S16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.3</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
         <v>970</v>
@@ -2629,40 +2629,40 @@
         <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
         <v>970</v>
       </c>
       <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
         <v>970</v>
       </c>
-      <c r="AH16" t="n">
-        <v>21</v>
-      </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
         <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -2704,22 +2704,22 @@
         <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2728,16 +2728,16 @@
         <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
         <v>1.27</v>
@@ -2746,34 +2746,34 @@
         <v>2.12</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
         <v>120</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>60</v>
       </c>
       <c r="AF17" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
         <v>20</v>
@@ -2782,22 +2782,22 @@
         <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I18" t="n">
         <v>2.28</v>
@@ -2845,13 +2845,13 @@
         <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3010,7 +3010,7 @@
         <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W19" t="n">
         <v>1.28</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G20" t="n">
         <v>2.46</v>
@@ -3106,13 +3106,13 @@
         <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
         <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.56</v>
+        <v>1.03</v>
       </c>
       <c r="O20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
         <v>1.13</v>
       </c>
       <c r="S20" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G21" t="n">
         <v>5.6</v>
@@ -3241,13 +3241,13 @@
         <v>1.81</v>
       </c>
       <c r="I21" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -3262,7 +3262,7 @@
         <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
@@ -3274,13 +3274,13 @@
         <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U21" t="n">
         <v>1.94</v>
       </c>
       <c r="V21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W21" t="n">
         <v>1.21</v>
@@ -3295,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB21" t="n">
         <v>17.5</v>
@@ -3310,7 +3310,7 @@
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
@@ -3328,7 +3328,7 @@
         <v>75</v>
       </c>
       <c r="AL21" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -3376,25 +3376,25 @@
         <v>5.3</v>
       </c>
       <c r="I22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P22" t="n">
         <v>1.45</v>
@@ -3403,76 +3403,76 @@
         <v>2.8</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -670,7 +670,7 @@
         <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -685,7 +685,7 @@
         <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -721,13 +721,13 @@
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
         <v>210</v>
@@ -736,34 +736,34 @@
         <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>130</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI2" t="n">
         <v>140</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AK2" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
         <v>260</v>
@@ -805,7 +805,7 @@
         <v>2.9</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
         <v>2.42</v>
@@ -814,7 +814,7 @@
         <v>2.76</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>3.65</v>
@@ -832,16 +832,16 @@
         <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
@@ -853,7 +853,7 @@
         <v>1.56</v>
       </c>
       <c r="W3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
         <v>15.5</v>
@@ -940,7 +940,7 @@
         <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
         <v>4.8</v>
@@ -949,19 +949,19 @@
         <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="O4" t="n">
         <v>1.59</v>
@@ -988,52 +988,52 @@
         <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>27</v>
       </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>24</v>
-      </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="H5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
         <v>8</v>
       </c>
-      <c r="I5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,10 +1210,10 @@
         <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
         <v>4.1</v>
@@ -1222,10 +1222,10 @@
         <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
@@ -1258,7 +1258,7 @@
         <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1267,7 +1267,7 @@
         <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA6" t="n">
         <v>100</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="G7" t="n">
         <v>1.78</v>
@@ -1357,7 +1357,7 @@
         <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1375,19 +1375,19 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S7" t="n">
         <v>2.26</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V7" t="n">
         <v>1.12</v>
@@ -1516,7 +1516,7 @@
         <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
         <v>1.61</v>
@@ -1534,10 +1534,10 @@
         <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="n">
         <v>25</v>
@@ -1582,7 +1582,7 @@
         <v>44</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1690,7 +1690,7 @@
         <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
@@ -1765,7 +1765,7 @@
         <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1774,13 +1774,13 @@
         <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
@@ -1801,22 +1801,22 @@
         <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
         <v>10</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
@@ -1831,10 +1831,10 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
         <v>230</v>
@@ -1897,7 +1897,7 @@
         <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>6.6</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>1.8</v>
+        <v>3.65</v>
       </c>
       <c r="O12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.28</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,22 +2083,22 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G13" t="n">
         <v>1.96</v>
@@ -2170,7 +2170,7 @@
         <v>4.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2182,7 +2182,7 @@
         <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
         <v>1.62</v>
@@ -2191,7 +2191,7 @@
         <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="T13" t="n">
         <v>1.61</v>
@@ -2206,7 +2206,7 @@
         <v>2.04</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
         <v>22</v>
@@ -2215,10 +2215,10 @@
         <v>36</v>
       </c>
       <c r="AA13" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC13" t="n">
         <v>10.5</v>
@@ -2233,7 +2233,7 @@
         <v>14.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
         <v>17.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="H14" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,7 +2311,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.31</v>
@@ -2320,25 +2320,25 @@
         <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
         <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>1.51</v>
       </c>
       <c r="W14" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X14" t="n">
         <v>970</v>
@@ -2431,16 +2431,16 @@
         <v>6.2</v>
       </c>
       <c r="I15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2461,7 +2461,7 @@
         <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
         <v>2.1</v>
@@ -2476,7 +2476,7 @@
         <v>2.32</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -2560,37 +2560,37 @@
         <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
         <v>1.45</v>
@@ -2608,7 +2608,7 @@
         <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="X16" t="n">
         <v>22</v>
@@ -2617,10 +2617,10 @@
         <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="n">
         <v>970</v>
@@ -2632,25 +2632,25 @@
         <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="n">
         <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
         <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
@@ -2662,7 +2662,7 @@
         <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>1.88</v>
       </c>
       <c r="G17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>4.4</v>
@@ -2731,7 +2731,7 @@
         <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
         <v>1.75</v>
@@ -2743,7 +2743,7 @@
         <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
         <v>16</v>
@@ -2797,7 +2797,7 @@
         <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
         <v>2.28</v>
@@ -2857,10 +2857,10 @@
         <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
         <v>1.33</v>
@@ -2914,16 +2914,16 @@
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="n">
         <v>70</v>
       </c>
       <c r="AK18" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>110</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="I19" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
         <v>3.65</v>
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.97</v>
+        <v>2.9</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
@@ -2998,22 +2998,22 @@
         <v>1.82</v>
       </c>
       <c r="R19" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.82</v>
+        <v>2.26</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="W19" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X19" t="n">
         <v>23</v>
@@ -3103,46 +3103,46 @@
         <v>2.46</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>1.03</v>
+        <v>2.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>2.18</v>
+        <v>1.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V20" t="n">
         <v>1.22</v>
@@ -3154,43 +3154,43 @@
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3235,10 +3235,10 @@
         <v>4.8</v>
       </c>
       <c r="G21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I21" t="n">
         <v>1.91</v>
@@ -3247,7 +3247,7 @@
         <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -3274,22 +3274,22 @@
         <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
         <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z21" t="n">
         <v>12</v>
@@ -3301,7 +3301,7 @@
         <v>17.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
         <v>10.5</v>
@@ -3310,13 +3310,13 @@
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
         <v>40</v>
@@ -3328,7 +3328,7 @@
         <v>75</v>
       </c>
       <c r="AL21" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
@@ -3370,16 +3370,16 @@
         <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I22" t="n">
         <v>5.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
         <v>3.45</v>
@@ -3412,16 +3412,16 @@
         <v>2.34</v>
       </c>
       <c r="U22" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="V22" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X22" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y22" t="n">
         <v>13.5</v>
@@ -3433,10 +3433,10 @@
         <v>230</v>
       </c>
       <c r="AB22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
         <v>26</v>
@@ -3448,10 +3448,10 @@
         <v>10.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
         <v>180</v>
@@ -3460,16 +3460,16 @@
         <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AM22" t="n">
         <v>360</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
         <v>290</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>1.99</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
@@ -685,19 +685,19 @@
         <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O2" t="n">
         <v>1.52</v>
       </c>
       <c r="P2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q2" t="n">
         <v>2.44</v>
@@ -709,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -757,7 +757,7 @@
         <v>140</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
         <v>32</v>
@@ -832,7 +832,7 @@
         <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
         <v>2.02</v>
@@ -940,7 +940,7 @@
         <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>4.8</v>
@@ -976,7 +976,7 @@
         <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
         <v>2.36</v>
@@ -988,7 +988,7 @@
         <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>9</v>
@@ -1081,10 +1081,10 @@
         <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
@@ -1096,22 +1096,22 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="O5" t="n">
         <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
         <v>1.21</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
         <v>2.66</v>
@@ -1120,13 +1120,13 @@
         <v>1.51</v>
       </c>
       <c r="V5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
         <v>2.96</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
         <v>28</v>
@@ -1210,10 +1210,10 @@
         <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
         <v>4.1</v>
@@ -1222,7 +1222,7 @@
         <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
         <v>1.57</v>
@@ -1240,7 +1240,7 @@
         <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
@@ -1249,7 +1249,7 @@
         <v>5.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U6" t="n">
         <v>1.71</v>
@@ -1258,7 +1258,7 @@
         <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1291,7 +1291,7 @@
         <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>110</v>
@@ -1345,7 +1345,7 @@
         <v>1.51</v>
       </c>
       <c r="G7" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H7" t="n">
         <v>4.8</v>
@@ -1393,7 +1393,7 @@
         <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G9" t="n">
         <v>2.62</v>
@@ -1675,7 +1675,7 @@
         <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1774,7 +1774,7 @@
         <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
         <v>1.75</v>
@@ -1828,10 +1828,10 @@
         <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
@@ -1915,7 +1915,7 @@
         <v>1.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
         <v>1.28</v>
@@ -2020,16 +2020,16 @@
         <v>1.95</v>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>3.95</v>
@@ -2041,22 +2041,22 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T12" t="n">
         <v>1.78</v>
@@ -2065,10 +2065,10 @@
         <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="X12" t="n">
         <v>18</v>
@@ -2161,13 +2161,13 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.27</v>
@@ -2200,7 +2200,7 @@
         <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
         <v>2.04</v>
@@ -2290,7 +2290,7 @@
         <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="H14" t="n">
         <v>2.72</v>
@@ -2371,7 +2371,7 @@
         <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
         <v>55</v>
@@ -2434,7 +2434,7 @@
         <v>7.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>4.2</v>
@@ -2581,7 +2581,7 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2611,7 +2611,7 @@
         <v>1.72</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
         <v>970</v>
@@ -2857,7 +2857,7 @@
         <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
         <v>4.9</v>
@@ -2971,7 +2971,7 @@
         <v>1.97</v>
       </c>
       <c r="I19" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="J19" t="n">
         <v>3.15</v>
@@ -3010,7 +3010,7 @@
         <v>1.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W19" t="n">
         <v>1.26</v>
@@ -3028,7 +3028,7 @@
         <v>40</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
         <v>12.5</v>
@@ -3043,10 +3043,10 @@
         <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
         <v>50</v>
@@ -3106,7 +3106,7 @@
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
         <v>2.88</v>
@@ -3121,7 +3121,7 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="O20" t="n">
         <v>1.41</v>
@@ -3130,19 +3130,19 @@
         <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
         <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="T20" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
         <v>1.22</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H21" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J21" t="n">
         <v>3.5</v>
@@ -3262,13 +3262,13 @@
         <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S21" t="n">
         <v>3.55</v>
@@ -3283,7 +3283,7 @@
         <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X21" t="n">
         <v>15.5</v>
@@ -3439,7 +3439,7 @@
         <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
         <v>150</v>
@@ -3451,7 +3451,7 @@
         <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
         <v>180</v>
@@ -3473,6 +3473,411 @@
       </c>
       <c r="AO22" t="n">
         <v>290</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sarmiento de Junin</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>21:45:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Boyaca Patriotas</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
         <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>3.65</v>
@@ -826,13 +826,13 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
         <v>2.02</v>
@@ -841,7 +841,7 @@
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
@@ -850,10 +850,10 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X3" t="n">
         <v>15.5</v>
@@ -862,7 +862,7 @@
         <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
         <v>46</v>
@@ -904,7 +904,7 @@
         <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
         <v>32</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.32</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.54</v>
       </c>
       <c r="M4" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="O4" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>2.92</v>
       </c>
       <c r="T4" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X4" t="n">
         <v>9</v>
@@ -1078,13 +1078,13 @@
         <v>1.51</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>7.6</v>
       </c>
       <c r="I5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
@@ -1093,25 +1093,25 @@
         <v>1.45</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>2.34</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="S5" t="n">
-        <v>2.24</v>
+        <v>3.85</v>
       </c>
       <c r="T5" t="n">
         <v>2.66</v>
@@ -1126,7 +1126,7 @@
         <v>2.96</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>28</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
         <v>2.64</v>
@@ -1231,7 +1231,7 @@
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O6" t="n">
         <v>1.56</v>
@@ -1384,7 +1384,7 @@
         <v>2.26</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>1.58</v>
       </c>
       <c r="U7" t="n">
         <v>1.05</v>
@@ -1537,7 +1537,7 @@
         <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
         <v>25</v>
@@ -1549,7 +1549,7 @@
         <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1567,7 +1567,7 @@
         <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="n">
         <v>60</v>
@@ -1582,7 +1582,7 @@
         <v>44</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1624,100 +1624,100 @@
         <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
         <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ9" t="n">
         <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -1753,34 +1753,34 @@
         <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I10" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
         <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
@@ -1789,7 +1789,7 @@
         <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
         <v>1.81</v>
@@ -1801,7 +1801,7 @@
         <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
         <v>8.199999999999999</v>
@@ -1813,10 +1813,10 @@
         <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
@@ -1837,7 +1837,7 @@
         <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AK10" t="n">
         <v>120</v>
@@ -1933,7 +1933,7 @@
         <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
         <v>12.5</v>
@@ -2026,13 +2026,13 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>1.33</v>
@@ -2041,13 +2041,13 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O12" t="n">
         <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q12" t="n">
         <v>1.78</v>
@@ -2059,19 +2059,19 @@
         <v>3.35</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
         <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
         <v>18.5</v>
@@ -2086,7 +2086,7 @@
         <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>21</v>
@@ -2098,7 +2098,7 @@
         <v>15.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="G13" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="n">
         <v>4.5</v>
@@ -2188,22 +2188,22 @@
         <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="T13" t="n">
         <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V13" t="n">
         <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X13" t="n">
         <v>27</v>
@@ -2215,7 +2215,7 @@
         <v>36</v>
       </c>
       <c r="AA13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB13" t="n">
         <v>14.5</v>
@@ -2257,7 +2257,7 @@
         <v>9.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G14" t="n">
         <v>2.94</v>
       </c>
       <c r="H14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -2302,40 +2302,40 @@
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q14" t="n">
         <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
         <v>1.54</v>
@@ -2362,7 +2362,7 @@
         <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
         <v>22</v>
@@ -2374,7 +2374,7 @@
         <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
         <v>48</v>
@@ -2383,16 +2383,16 @@
         <v>36</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2422,61 +2422,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I15" t="n">
         <v>7.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
         <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -2485,49 +2485,49 @@
         <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="n">
         <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
@@ -2581,7 +2581,7 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G17" t="n">
         <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
         <v>4.7</v>
@@ -2707,37 +2707,37 @@
         <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
         <v>1.27</v>
@@ -2746,58 +2746,58 @@
         <v>2.1</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
         <v>120</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
         <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
         <v>22</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="H19" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="I19" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="J19" t="n">
         <v>3.15</v>
@@ -2986,43 +2986,43 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="U19" t="n">
         <v>1.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W19" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
         <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="n">
         <v>40</v>
@@ -3031,16 +3031,16 @@
         <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
         <v>16</v>
       </c>
       <c r="AE19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF19" t="n">
         <v>34</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>40</v>
       </c>
       <c r="AG19" t="n">
         <v>970</v>
@@ -3052,10 +3052,10 @@
         <v>50</v>
       </c>
       <c r="AJ19" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL19" t="n">
         <v>70</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G20" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="n">
         <v>4.9</v>
@@ -3121,25 +3121,25 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>2.66</v>
+        <v>2.98</v>
       </c>
       <c r="O20" t="n">
         <v>1.41</v>
       </c>
       <c r="P20" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q20" t="n">
         <v>2.18</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S20" t="n">
         <v>3.25</v>
       </c>
       <c r="T20" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="n">
         <v>1.87</v>
@@ -3148,13 +3148,13 @@
         <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="n">
         <v>46</v>
@@ -3175,10 +3175,10 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -3187,10 +3187,10 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3235,13 +3235,13 @@
         <v>4.9</v>
       </c>
       <c r="G21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J21" t="n">
         <v>3.5</v>
@@ -3262,7 +3262,7 @@
         <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
@@ -3280,7 +3280,7 @@
         <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W21" t="n">
         <v>1.21</v>
@@ -3328,13 +3328,13 @@
         <v>75</v>
       </c>
       <c r="AL21" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO21" t="n">
         <v>15</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G22" t="n">
         <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>3.15</v>
@@ -3415,7 +3415,7 @@
         <v>1.61</v>
       </c>
       <c r="V22" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
         <v>1.98</v>
@@ -3511,7 +3511,7 @@
         <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J23" t="n">
         <v>3.05</v>
@@ -3529,7 +3529,7 @@
         <v>2.42</v>
       </c>
       <c r="O23" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P23" t="n">
         <v>1.47</v>
@@ -3544,13 +3544,13 @@
         <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U23" t="n">
         <v>1.64</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W23" t="n">
         <v>1.96</v>
@@ -3592,7 +3592,7 @@
         <v>170</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK23" t="n">
         <v>36</v>
@@ -3679,7 +3679,7 @@
         <v>6.8</v>
       </c>
       <c r="T24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U24" t="n">
         <v>1.62</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G25" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J25" t="n">
         <v>2.74</v>
       </c>
-      <c r="J25" t="n">
-        <v>2.72</v>
-      </c>
       <c r="K25" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,22 +3796,22 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R25" t="n">
         <v>1.13</v>
       </c>
       <c r="S25" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
         <v>1.05</v>
@@ -3820,10 +3820,10 @@
         <v>1.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W25" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -700,7 +700,7 @@
         <v>1.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R2" t="n">
         <v>1.2</v>
@@ -769,7 +769,7 @@
         <v>260</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
         <v>210</v>
@@ -805,7 +805,7 @@
         <v>2.92</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
         <v>2.42</v>
@@ -853,7 +853,7 @@
         <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
         <v>15.5</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.32</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.54</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="P4" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y4" t="n">
         <v>15.5</v>
@@ -1078,13 +1078,13 @@
         <v>1.51</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
@@ -1093,25 +1093,25 @@
         <v>1.45</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="P5" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.48</v>
+        <v>2.24</v>
       </c>
       <c r="R5" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="S5" t="n">
-        <v>3.85</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
         <v>2.66</v>
@@ -1126,10 +1126,10 @@
         <v>2.96</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1156,25 +1156,25 @@
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
         <v>2.64</v>
@@ -1216,7 +1216,7 @@
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="n">
         <v>2.96</v>
@@ -1225,19 +1225,19 @@
         <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O6" t="n">
         <v>1.56</v>
       </c>
       <c r="P6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q6" t="n">
         <v>2.7</v>
@@ -1252,7 +1252,7 @@
         <v>2.14</v>
       </c>
       <c r="U6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
         <v>1.33</v>
@@ -1261,46 +1261,46 @@
         <v>1.61</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
         <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>80</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
         <v>110</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="I8" t="n">
         <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1513,43 +1513,43 @@
         <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S8" t="n">
         <v>2.46</v>
       </c>
       <c r="T8" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U8" t="n">
         <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="W8" t="n">
         <v>1.27</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>15.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
         <v>25</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1558,7 +1558,7 @@
         <v>44</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>20</v>
@@ -1618,10 +1618,10 @@
         <v>2.62</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>3.55</v>
@@ -1636,43 +1636,43 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
         <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
         <v>48</v>
@@ -1705,13 +1705,13 @@
         <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
         <v>20</v>
@@ -1753,46 +1753,46 @@
         <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I10" t="n">
         <v>1.77</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
         <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
         <v>2.28</v>
@@ -1801,43 +1801,43 @@
         <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AK10" t="n">
         <v>120</v>
@@ -1846,13 +1846,13 @@
         <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AO10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,76 +1882,76 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
         <v>2.04</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
         <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
         <v>1.94</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W11" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB11" t="n">
         <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>11.5</v>
@@ -1975,16 +1975,16 @@
         <v>110</v>
       </c>
       <c r="AK11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
         <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AO11" t="n">
         <v>20</v>
@@ -2020,19 +2020,19 @@
         <v>1.95</v>
       </c>
       <c r="G12" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.33</v>
@@ -2041,34 +2041,34 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
         <v>3.35</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X12" t="n">
         <v>17.5</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
         <v>9.800000000000001</v>
@@ -2095,7 +2095,7 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
@@ -2110,7 +2110,7 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2155,7 +2155,7 @@
         <v>1.86</v>
       </c>
       <c r="G13" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H13" t="n">
         <v>3.95</v>
@@ -2170,28 +2170,28 @@
         <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="T13" t="n">
         <v>1.61</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G14" t="n">
         <v>2.94</v>
       </c>
       <c r="H14" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
@@ -2320,13 +2320,13 @@
         <v>1.95</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
         <v>1.73</v>
@@ -2347,7 +2347,7 @@
         <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
         <v>55</v>
@@ -2362,37 +2362,37 @@
         <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
         <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H15" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I15" t="n">
         <v>7.6</v>
@@ -2440,16 +2440,16 @@
         <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
         <v>1.86</v>
@@ -2467,7 +2467,7 @@
         <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V15" t="n">
         <v>1.15</v>
@@ -2485,7 +2485,7 @@
         <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="n">
         <v>8</v>
@@ -2494,10 +2494,10 @@
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF15" t="n">
         <v>10.5</v>
@@ -2506,10 +2506,10 @@
         <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
         <v>17.5</v>
@@ -2518,16 +2518,16 @@
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
         <v>12.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.2</v>
@@ -2581,13 +2581,13 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q16" t="n">
         <v>1.75</v>
@@ -2599,10 +2599,10 @@
         <v>2.58</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V16" t="n">
         <v>1.37</v>
@@ -2617,10 +2617,10 @@
         <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
         <v>970</v>
@@ -2644,7 +2644,7 @@
         <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
         <v>36</v>
@@ -2656,13 +2656,13 @@
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
         <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2704,7 +2704,7 @@
         <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
@@ -2713,31 +2713,31 @@
         <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T17" t="n">
         <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
         <v>1.27</v>
@@ -2746,7 +2746,7 @@
         <v>2.1</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
         <v>24</v>
@@ -2782,19 +2782,19 @@
         <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
         <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO17" t="n">
         <v>55</v>
@@ -2836,7 +2836,7 @@
         <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J18" t="n">
         <v>3.45</v>
@@ -2857,7 +2857,7 @@
         <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
@@ -2875,7 +2875,7 @@
         <v>2.08</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W18" t="n">
         <v>1.36</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
         <v>3.65</v>
@@ -2983,64 +2983,64 @@
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="S19" t="n">
-        <v>2.28</v>
+        <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.06</v>
+        <v>1.72</v>
       </c>
       <c r="U19" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
         <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>970</v>
@@ -3049,17 +3049,17 @@
         <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ19" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL19" t="n">
         <v>55</v>
       </c>
-      <c r="AL19" t="n">
-        <v>70</v>
-      </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -3097,109 +3097,109 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>1.92</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="J20" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="W20" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="X20" t="n">
         <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF20" t="n">
         <v>11</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AG20" t="n">
         <v>11</v>
       </c>
-      <c r="AD20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3238,7 +3238,7 @@
         <v>5.6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I21" t="n">
         <v>1.91</v>
@@ -3247,7 +3247,7 @@
         <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -3256,28 +3256,28 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V21" t="n">
         <v>2.08</v>
@@ -3286,13 +3286,13 @@
         <v>1.21</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA21" t="n">
         <v>20</v>
@@ -3301,7 +3301,7 @@
         <v>17.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
         <v>10.5</v>
@@ -3316,7 +3316,7 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
         <v>40</v>
@@ -3328,7 +3328,7 @@
         <v>75</v>
       </c>
       <c r="AL21" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
@@ -3337,7 +3337,7 @@
         <v>100</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="22">
@@ -3373,7 +3373,7 @@
         <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I22" t="n">
         <v>6</v>
@@ -3403,7 +3403,7 @@
         <v>2.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S22" t="n">
         <v>6</v>
@@ -3430,13 +3430,13 @@
         <v>44</v>
       </c>
       <c r="AA22" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB22" t="n">
         <v>7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
         <v>970</v>
@@ -3463,16 +3463,16 @@
         <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM22" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AN22" t="n">
         <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G23" t="n">
         <v>2.04</v>
@@ -3544,7 +3544,7 @@
         <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U23" t="n">
         <v>1.64</v>
@@ -3559,13 +3559,13 @@
         <v>9.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA23" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB23" t="n">
         <v>7.2</v>
@@ -3574,7 +3574,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE23" t="n">
         <v>140</v>
@@ -3607,7 +3607,7 @@
         <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
@@ -3640,13 +3640,13 @@
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
         <v>2.84</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
         <v>2.86</v>
@@ -3682,10 +3682,10 @@
         <v>2.3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V24" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W24" t="n">
         <v>1.44</v>
@@ -3736,10 +3736,10 @@
         <v>120</v>
       </c>
       <c r="AM24" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AN24" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AO24" t="n">
         <v>80</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="G25" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="K25" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,37 +3796,37 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="P25" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R25" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S25" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="U25" t="n">
-        <v>1.05</v>
+        <v>1.54</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="W25" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y25" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -667,52 +667,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>1.41</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.66</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
         <v>1.52</v>
       </c>
       <c r="P2" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>1.52</v>
       </c>
       <c r="T2" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.72</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -721,58 +721,58 @@
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.92</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
         <v>3.35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I3" t="n">
-        <v>2.72</v>
+        <v>990</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>3.65</v>
@@ -826,88 +826,88 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.22</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>8.199999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
         <v>1.1</v>
       </c>
-      <c r="N5" t="n">
-        <v>2.58</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.48</v>
+        <v>1.09</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>1.09</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="T5" t="n">
-        <v>2.66</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>1.51</v>
+        <v>1.05</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,34 +1138,34 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,70 +1207,70 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>1.47</v>
       </c>
       <c r="G6" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>1.09</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
         <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.48</v>
+        <v>1.24</v>
       </c>
       <c r="O6" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>5.5</v>
+        <v>1.05</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
         <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1282,7 +1282,7 @@
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
@@ -1294,25 +1294,25 @@
         <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1.76</v>
+        <v>990</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>990</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,34 +1366,34 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.52</v>
+        <v>1.17</v>
       </c>
       <c r="R7" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.26</v>
+        <v>1.17</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
         <v>1.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>990</v>
       </c>
       <c r="H8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="I8" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,88 +1501,88 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.2</v>
+        <v>1.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.44</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.58</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.46</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.63</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="W8" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H9" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
         <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,52 +1636,52 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>1.24</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.31</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>1.92</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>13</v>
@@ -1690,34 +1690,34 @@
         <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
         <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1747,85 +1747,85 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.7</v>
+        <v>1.38</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>990</v>
       </c>
       <c r="H10" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="I10" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P10" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>1.02</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>2.26</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="W10" t="n">
         <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
         <v>980</v>
@@ -1834,22 +1834,22 @@
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>2.82</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>1.66</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>1.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>1.36</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>990</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>1.24</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>1.93</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.29</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>3.35</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,19 +2083,19 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
@@ -2110,7 +2110,7 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>1.97</v>
+        <v>990</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>990</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>1.09</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>950</v>
       </c>
       <c r="L13" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.42</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="U13" t="n">
-        <v>2.34</v>
+        <v>1.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.62</v>
+        <v>1.43</v>
       </c>
       <c r="G14" t="n">
-        <v>2.94</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="I14" t="n">
-        <v>2.98</v>
+        <v>870</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>1.24</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.28</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>1.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W14" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="G15" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H15" t="n">
-        <v>6.2</v>
+        <v>1.09</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>990</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>1.22</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.82</v>
+        <v>1.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W15" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI15" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>1.35</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>990</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>1.35</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>990</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>1.09</v>
       </c>
       <c r="K16" t="n">
         <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.14</v>
+        <v>1.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.23</v>
       </c>
       <c r="R16" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="S16" t="n">
-        <v>2.58</v>
+        <v>1.23</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.05</v>
       </c>
       <c r="U16" t="n">
-        <v>2.32</v>
+        <v>1.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -2617,10 +2617,10 @@
         <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
         <v>970</v>
@@ -2632,37 +2632,37 @@
         <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
         <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>1.09</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>500</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>1.22</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.14</v>
+        <v>1.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="R17" t="n">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="S17" t="n">
-        <v>2.98</v>
+        <v>1.27</v>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
         <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.24</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.26</v>
       </c>
       <c r="J18" t="n">
         <v>3.45</v>
@@ -2866,7 +2866,7 @@
         <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
         <v>1.87</v>
@@ -2875,16 +2875,16 @@
         <v>2.08</v>
       </c>
       <c r="V18" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W18" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
         <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>13</v>
@@ -2893,7 +2893,7 @@
         <v>28</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7.4</v>
@@ -2902,25 +2902,25 @@
         <v>11</v>
       </c>
       <c r="AE18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF18" t="n">
         <v>25</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>24</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
         <v>40</v>
       </c>
       <c r="AJ18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="n">
         <v>60</v>
@@ -2929,7 +2929,7 @@
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO18" t="n">
         <v>19.5</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>1.39</v>
       </c>
       <c r="G19" t="n">
-        <v>3.8</v>
+        <v>990</v>
       </c>
       <c r="H19" t="n">
-        <v>2.2</v>
+        <v>1.39</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>990</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
         <v>3.65</v>
@@ -2983,37 +2983,37 @@
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>1.87</v>
+        <v>1.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="R19" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>1.27</v>
       </c>
       <c r="T19" t="n">
-        <v>1.72</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -3022,10 +3022,10 @@
         <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
         <v>970</v>
@@ -3037,10 +3037,10 @@
         <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
         <v>970</v>
@@ -3049,16 +3049,16 @@
         <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,109 +3097,109 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>1.92</v>
+        <v>990</v>
       </c>
       <c r="H20" t="n">
-        <v>4.4</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>6.8</v>
+        <v>990</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>1.37</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>1.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="U20" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="V20" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="G21" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H21" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I21" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
         <v>3.7</v>
@@ -3256,88 +3256,88 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="V21" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="W21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
         <v>20</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.89</v>
+        <v>1.44</v>
       </c>
       <c r="G22" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.02</v>
       </c>
-      <c r="H22" t="n">
-        <v>5.2</v>
-      </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
         <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>950</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2.42</v>
+        <v>1.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="T22" t="n">
-        <v>2.34</v>
+        <v>1.05</v>
       </c>
       <c r="U22" t="n">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X22" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AD22" t="n">
         <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
         <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.92</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5.2</v>
-      </c>
       <c r="I23" t="n">
-        <v>5.9</v>
+        <v>990</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>950</v>
       </c>
       <c r="L23" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.12</v>
       </c>
-      <c r="N23" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.16</v>
-      </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>1.05</v>
       </c>
       <c r="T23" t="n">
-        <v>2.34</v>
+        <v>1.05</v>
       </c>
       <c r="U23" t="n">
-        <v>1.64</v>
+        <v>1.05</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="X23" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z23" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD23" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AE23" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH23" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AI23" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,52 +3637,52 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H24" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
         <v>2.86</v>
       </c>
       <c r="K24" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.24</v>
+        <v>1.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S24" t="n">
-        <v>6.8</v>
+        <v>1.05</v>
       </c>
       <c r="T24" t="n">
-        <v>2.3</v>
+        <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>1.63</v>
+        <v>1.05</v>
       </c>
       <c r="V24" t="n">
         <v>1.46</v>
@@ -3691,31 +3691,31 @@
         <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="Z24" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AD24" t="n">
         <v>970</v>
       </c>
       <c r="AE24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
         <v>970</v>
@@ -3724,25 +3724,25 @@
         <v>970</v>
       </c>
       <c r="AI24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>2.84</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,37 +3796,37 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.52</v>
+        <v>1.24</v>
       </c>
       <c r="O25" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.12</v>
+        <v>1.02</v>
       </c>
       <c r="R25" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="S25" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="T25" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.88</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K2" t="n">
         <v>6.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -739,7 +739,7 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:40:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>2.46</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>990</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>4.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.46</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,34 +961,34 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.01</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.05</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,105 +1058,105 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:40:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.1</v>
+        <v>2.86</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.12</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.08</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1171,19 +1171,19 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,118 +1198,118 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.47</v>
+        <v>1.82</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>1.05</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>2.36</v>
       </c>
       <c r="U6" t="n">
-        <v>1.05</v>
+        <v>1.59</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,78 +1328,78 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>990</v>
+        <v>1.51</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>7.2</v>
       </c>
       <c r="I7" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>2.58</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.17</v>
+        <v>2.42</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>2.66</v>
       </c>
       <c r="U7" t="n">
-        <v>1.05</v>
+        <v>1.51</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.7</v>
+        <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>990</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.81</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>1.97</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>1.25</v>
+        <v>2.46</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.18</v>
+        <v>2.74</v>
       </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.58</v>
       </c>
-      <c r="T8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.29</v>
-      </c>
       <c r="X8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
         <v>980</v>
       </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH8" t="n">
         <v>980</v>
       </c>
-      <c r="AC8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>980</v>
       </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>1.42</v>
       </c>
       <c r="G9" t="n">
-        <v>2.58</v>
+        <v>1.51</v>
       </c>
       <c r="H9" t="n">
-        <v>2.86</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>8.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>5.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>1.24</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>1.92</v>
+        <v>2.44</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.63</v>
+        <v>2.92</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK9" t="n">
         <v>15</v>
       </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>6.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.38</v>
+        <v>4.4</v>
       </c>
       <c r="G10" t="n">
-        <v>990</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="J10" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.16</v>
-      </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>980</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK10" t="n">
         <v>980</v>
       </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.35</v>
       </c>
-      <c r="G11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.9</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>1.05</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.3</v>
+        <v>1.63</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,123 +2003,123 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.36</v>
+        <v>4.6</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.36</v>
+        <v>1.88</v>
       </c>
       <c r="I12" t="n">
-        <v>990</v>
+        <v>2.08</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>1.24</v>
+        <v>2.92</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.29</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="U12" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="G13" t="n">
-        <v>990</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>990</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>1.1</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.18</v>
+        <v>2.32</v>
       </c>
       <c r="R13" t="n">
         <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>1.05</v>
+        <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.05</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
-        <v>1.05</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,78 +2273,78 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.43</v>
+        <v>1.89</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H14" t="n">
-        <v>1.45</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>870</v>
+        <v>4.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>1.24</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.28</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,34 +2353,34 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="n">
-        <v>1.09</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>990</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>1.22</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>1.21</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.15</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="T15" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.05</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.35</v>
+        <v>2.84</v>
       </c>
       <c r="G16" t="n">
-        <v>990</v>
+        <v>2.88</v>
       </c>
       <c r="H16" t="n">
-        <v>1.35</v>
+        <v>2.68</v>
       </c>
       <c r="I16" t="n">
-        <v>990</v>
+        <v>2.74</v>
       </c>
       <c r="J16" t="n">
-        <v>1.09</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>1.15</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>1.15</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.23</v>
+        <v>1.82</v>
       </c>
       <c r="R16" t="n">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>1.23</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
       <c r="G17" t="n">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="H17" t="n">
-        <v>1.09</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
         <v>4.8</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K17" t="n">
-        <v>500</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>1.22</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>1.22</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.27</v>
+        <v>1.77</v>
       </c>
       <c r="R17" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>1.27</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>1.05</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="W17" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.75</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>2.42</v>
       </c>
       <c r="H18" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.24</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.45</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S18" t="n">
-        <v>3.9</v>
+        <v>2.58</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.81</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL18" t="n">
         <v>40</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>60</v>
-      </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AO18" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.39</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>990</v>
+        <v>1.94</v>
       </c>
       <c r="H19" t="n">
-        <v>1.39</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>990</v>
+        <v>4.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>1.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.27</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>990</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="I20" t="n">
-        <v>990</v>
+        <v>2.26</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>1.1</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.28</v>
+        <v>1.86</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.37</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>1.05</v>
+        <v>3.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,72 +3218,72 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="G21" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="I21" t="n">
-        <v>1.94</v>
+        <v>2.44</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>1.8</v>
+        <v>3.65</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
       <c r="W21" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3292,25 +3292,25 @@
         <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="n">
         <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
         <v>970</v>
@@ -3319,16 +3319,16 @@
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,78 +3353,78 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="G22" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="H22" t="n">
-        <v>2.02</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>1.25</v>
+        <v>2.86</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W22" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="X22" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,43 +3433,43 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.89</v>
+        <v>4.7</v>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="H23" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="I23" t="n">
-        <v>990</v>
+        <v>1.94</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.05</v>
+        <v>1.91</v>
       </c>
       <c r="U23" t="n">
-        <v>1.05</v>
+        <v>1.93</v>
       </c>
       <c r="V23" t="n">
-        <v>1.2</v>
+        <v>2.06</v>
       </c>
       <c r="W23" t="n">
-        <v>1.91</v>
+        <v>1.23</v>
       </c>
       <c r="X23" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AB23" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AC23" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.8</v>
+        <v>1.93</v>
       </c>
       <c r="G24" t="n">
-        <v>3.45</v>
+        <v>1.97</v>
       </c>
       <c r="H24" t="n">
-        <v>2.74</v>
+        <v>5.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N24" t="n">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="R24" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S24" t="n">
-        <v>1.05</v>
+        <v>6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.05</v>
+        <v>2.32</v>
       </c>
       <c r="U24" t="n">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="V24" t="n">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.44</v>
+        <v>2.02</v>
       </c>
       <c r="X24" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y24" t="n">
         <v>970</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB24" t="n">
-        <v>970</v>
+        <v>6.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>970</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
         <v>970</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,125 +3758,395 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21:45:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>2.84</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>2.86</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N25" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="R25" t="n">
         <v>1.13</v>
       </c>
       <c r="S25" t="n">
-        <v>1.02</v>
+        <v>7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sarmiento de Junin</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>21:45:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Boyaca Patriotas</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -673,49 +673,49 @@
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="J2" t="n">
         <v>3.05</v>
       </c>
       <c r="K2" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>2.58</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
         <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.81</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="W2" t="n">
         <v>1.33</v>
@@ -820,7 +820,7 @@
         <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="G4" t="n">
-        <v>8.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="H4" t="n">
         <v>1.77</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I5" t="n">
         <v>2.8</v>
@@ -1120,7 +1120,7 @@
         <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W5" t="n">
         <v>1.43</v>
@@ -1207,67 +1207,67 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="H6" t="n">
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O6" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="P6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="R6" t="n">
         <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="T6" t="n">
         <v>2.36</v>
       </c>
       <c r="U6" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="X6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1276,22 +1276,22 @@
         <v>6.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="I7" t="n">
         <v>12.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
         <v>4.6</v>
@@ -1366,13 +1366,13 @@
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
         <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
         <v>2.42</v>
@@ -1381,7 +1381,7 @@
         <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>1.05</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
         <v>2.66</v>
@@ -1426,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="P8" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="U8" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="V8" t="n">
         <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="X8" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1543,7 +1543,7 @@
         <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>7.2</v>
       </c>
       <c r="AC8" t="n">
         <v>7</v>
@@ -1552,7 +1552,7 @@
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
@@ -1564,7 +1564,7 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
         <v>980</v>
@@ -1576,13 +1576,13 @@
         <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
         <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G9" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
@@ -1663,7 +1663,7 @@
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
         <v>27</v>
@@ -1753,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I10" t="n">
         <v>1.81</v>
@@ -1762,7 +1762,7 @@
         <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.23</v>
@@ -1774,13 +1774,13 @@
         <v>5.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
         <v>2.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="R10" t="n">
         <v>1.67</v>
@@ -1888,16 +1888,16 @@
         <v>2.58</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
         <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1930,7 +1930,7 @@
         <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W11" t="n">
         <v>1.63</v>
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
         <v>29</v>
@@ -2020,28 +2020,28 @@
         <v>4.6</v>
       </c>
       <c r="G12" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="I12" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2050,28 +2050,28 @@
         <v>1.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
         <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="W12" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
         <v>7.8</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
@@ -2098,19 +2098,19 @@
         <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AK12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL12" t="n">
         <v>110</v>
@@ -2119,7 +2119,7 @@
         <v>190</v>
       </c>
       <c r="AN12" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2158,19 +2158,19 @@
         <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>3.35</v>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
@@ -2179,19 +2179,19 @@
         <v>2.96</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
         <v>1.93</v>
@@ -2200,7 +2200,7 @@
         <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2242,19 +2242,19 @@
         <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK13" t="n">
         <v>60</v>
       </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2290,7 +2290,7 @@
         <v>1.89</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
@@ -2305,7 +2305,7 @@
         <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2335,10 +2335,10 @@
         <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X14" t="n">
         <v>18</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
         <v>4.6</v>
@@ -2437,7 +2437,7 @@
         <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.27</v>
@@ -2446,7 +2446,7 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
@@ -2455,13 +2455,13 @@
         <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
         <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T15" t="n">
         <v>1.63</v>
@@ -2473,7 +2473,7 @@
         <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
@@ -2560,100 +2560,100 @@
         <v>2.84</v>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="I16" t="n">
         <v>2.74</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
         <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF16" t="n">
         <v>20</v>
       </c>
-      <c r="Y16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="n">
         <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
         <v>100</v>
@@ -2662,7 +2662,7 @@
         <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -2692,40 +2692,40 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="G17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I17" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R17" t="n">
         <v>1.39</v>
@@ -2734,28 +2734,28 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
         <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AB17" t="n">
         <v>9.199999999999999</v>
@@ -2764,13 +2764,13 @@
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>110</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
@@ -2797,7 +2797,7 @@
         <v>9.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="G18" t="n">
         <v>2.42</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2863,22 +2863,22 @@
         <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S18" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X18" t="n">
         <v>970</v>
@@ -2890,7 +2890,7 @@
         <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
         <v>970</v>
@@ -2899,7 +2899,7 @@
         <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>46</v>
@@ -2908,7 +2908,7 @@
         <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>970</v>
@@ -2920,16 +2920,16 @@
         <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
         <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN18" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>38</v>
@@ -2980,7 +2980,7 @@
         <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3115,7 +3115,7 @@
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3139,7 +3139,7 @@
         <v>3.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
@@ -3202,7 +3202,7 @@
         <v>48</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="21">
@@ -3235,55 +3235,55 @@
         <v>3.25</v>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H21" t="n">
         <v>2.22</v>
       </c>
       <c r="I21" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.3</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S21" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>1.69</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3307,7 +3307,7 @@
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF21" t="n">
         <v>25</v>
@@ -3319,16 +3319,16 @@
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK21" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AL21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="G22" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
@@ -3391,10 +3391,10 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P22" t="n">
         <v>1.73</v>
@@ -3406,16 +3406,16 @@
         <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U22" t="n">
         <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W22" t="n">
         <v>2.16</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G23" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="I23" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
         <v>3.75</v>
@@ -3559,7 +3559,7 @@
         <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z23" t="n">
         <v>13</v>
@@ -3568,7 +3568,7 @@
         <v>20</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
         <v>8.6</v>
@@ -3577,7 +3577,7 @@
         <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF23" t="n">
         <v>40</v>
@@ -3589,7 +3589,7 @@
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="n">
         <v>140</v>
@@ -3649,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
         <v>3.35</v>
@@ -3775,19 +3775,19 @@
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="I25" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
         <v>2.86</v>
       </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
         <v>1.68</v>
@@ -3796,16 +3796,16 @@
         <v>1.16</v>
       </c>
       <c r="N25" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="O25" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="P25" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R25" t="n">
         <v>1.13</v>
@@ -3814,70 +3814,70 @@
         <v>7</v>
       </c>
       <c r="T25" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V25" t="n">
         <v>1.47</v>
       </c>
       <c r="W25" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X25" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC25" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y25" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD25" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG25" t="n">
         <v>20</v>
       </c>
-      <c r="AG25" t="n">
-        <v>970</v>
-      </c>
       <c r="AH25" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="n">
         <v>120</v>
       </c>
       <c r="AJ25" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="AK25" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="AL25" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
         <v>330</v>
       </c>
       <c r="AN25" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="G26" t="n">
         <v>2.04</v>
@@ -3919,28 +3919,28 @@
         <v>5.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M26" t="n">
         <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P26" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="R26" t="n">
         <v>1.16</v>
@@ -3949,7 +3949,7 @@
         <v>6</v>
       </c>
       <c r="T26" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="U26" t="n">
         <v>1.65</v>
@@ -3961,10 +3961,10 @@
         <v>1.96</v>
       </c>
       <c r="X26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
         <v>50</v>
@@ -3973,43 +3973,43 @@
         <v>220</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AE26" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="n">
         <v>170</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AL26" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
         <v>330</v>
       </c>
       <c r="AN26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO26" t="n">
         <v>260</v>
@@ -4081,7 +4081,7 @@
         <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
         <v>2.02</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -667,79 +667,79 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="I2" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>7.4</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>2.58</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
         <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -826,34 +826,34 @@
         <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O3" t="n">
         <v>1.49</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R3" t="n">
         <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
         <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="X3" t="n">
         <v>9.800000000000001</v>
@@ -871,10 +871,10 @@
         <v>6.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>120</v>
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="I4" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
@@ -985,7 +985,7 @@
         <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="W4" t="n">
         <v>1.23</v>
@@ -1078,10 +1078,10 @@
         <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J5" t="n">
         <v>3.2</v>
@@ -1090,19 +1090,19 @@
         <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
@@ -1117,7 +1117,7 @@
         <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
         <v>1.56</v>
@@ -1171,7 +1171,7 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G6" t="n">
         <v>2.14</v>
@@ -1216,7 +1216,7 @@
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
@@ -1234,7 +1234,7 @@
         <v>2.32</v>
       </c>
       <c r="O6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
         <v>1.46</v>
@@ -1480,13 +1480,13 @@
         <v>2.34</v>
       </c>
       <c r="G8" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H8" t="n">
         <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
         <v>2.74</v>
@@ -1498,13 +1498,13 @@
         <v>1.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
         <v>2.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
         <v>1.41</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,43 +1636,43 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="X9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,25 +1681,25 @@
         <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AE9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="n">
         <v>14</v>
@@ -1714,10 +1714,10 @@
         <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J10" t="n">
         <v>4.4</v>
       </c>
-      <c r="G10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.3</v>
-      </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.23</v>
@@ -1771,34 +1771,34 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S10" t="n">
         <v>2.28</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V10" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1813,7 +1813,7 @@
         <v>980</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
         <v>11.5</v>
@@ -1846,13 +1846,13 @@
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
         <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="11">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="G11" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H11" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1912,7 +1912,7 @@
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q11" t="n">
         <v>1.94</v>
@@ -1930,37 +1930,37 @@
         <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="W11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X11" t="n">
         <v>15.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
         <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1978,16 +1978,16 @@
         <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2023,19 +2023,19 @@
         <v>5.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="I12" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
         <v>1.11</v>
@@ -2044,7 +2044,7 @@
         <v>2.84</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P12" t="n">
         <v>1.62</v>
@@ -2065,7 +2065,7 @@
         <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="W12" t="n">
         <v>1.23</v>
@@ -2107,7 +2107,7 @@
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="n">
         <v>90</v>
@@ -2161,13 +2161,13 @@
         <v>2.28</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.5</v>
@@ -2200,7 +2200,7 @@
         <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
@@ -2311,7 +2311,7 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.31</v>
@@ -2338,7 +2338,7 @@
         <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="X14" t="n">
         <v>18</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.27</v>
@@ -2458,22 +2458,22 @@
         <v>1.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
         <v>2.58</v>
       </c>
       <c r="T15" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
@@ -2521,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
         <v>9.4</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I16" t="n">
         <v>2.74</v>
       </c>
       <c r="J16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.55</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
@@ -2593,7 +2593,7 @@
         <v>1.91</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
         <v>3.3</v>
@@ -2635,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
@@ -2647,7 +2647,7 @@
         <v>44</v>
       </c>
       <c r="AJ16" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
         <v>980</v>
@@ -2695,7 +2695,7 @@
         <v>1.52</v>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H17" t="n">
         <v>6.6</v>
@@ -2710,7 +2710,7 @@
         <v>4.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2719,7 +2719,7 @@
         <v>3.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
         <v>2.04</v>
@@ -2743,7 +2743,7 @@
         <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X17" t="n">
         <v>17.5</v>
@@ -2830,7 +2830,7 @@
         <v>2.28</v>
       </c>
       <c r="G18" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
@@ -2851,7 +2851,7 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -2974,7 +2974,7 @@
         <v>4.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
         <v>4.1</v>
@@ -2995,7 +2995,7 @@
         <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R19" t="n">
         <v>1.44</v>
@@ -3052,10 +3052,10 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
         <v>32</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.75</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.8</v>
       </c>
       <c r="H20" t="n">
         <v>2.24</v>
@@ -3148,7 +3148,7 @@
         <v>1.79</v>
       </c>
       <c r="W20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X20" t="n">
         <v>12.5</v>
@@ -3163,10 +3163,10 @@
         <v>28</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
         <v>11</v>
@@ -3241,13 +3241,13 @@
         <v>2.22</v>
       </c>
       <c r="I21" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J21" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>1.35</v>
@@ -3280,10 +3280,10 @@
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="G22" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3394,13 +3394,13 @@
         <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R22" t="n">
         <v>1.27</v>
@@ -3412,13 +3412,13 @@
         <v>1.99</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V22" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
@@ -3439,13 +3439,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -3454,13 +3454,13 @@
         <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>46</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="G23" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="H23" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="I23" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3535,7 +3535,7 @@
         <v>1.79</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
         <v>1.3</v>
@@ -3550,61 +3550,61 @@
         <v>1.93</v>
       </c>
       <c r="V23" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="W23" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AA23" t="n">
         <v>20</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH23" t="n">
         <v>21</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AK23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN23" t="n">
         <v>90</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>110</v>
       </c>
       <c r="AO23" t="n">
         <v>16</v>
@@ -3643,7 +3643,7 @@
         <v>1.97</v>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I24" t="n">
         <v>6</v>
@@ -3652,7 +3652,7 @@
         <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.63</v>
@@ -3778,7 +3778,7 @@
         <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
         <v>3.1</v>
@@ -3799,7 +3799,7 @@
         <v>2.34</v>
       </c>
       <c r="O25" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="P25" t="n">
         <v>1.42</v>
@@ -3820,7 +3820,7 @@
         <v>1.66</v>
       </c>
       <c r="V25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W25" t="n">
         <v>1.46</v>
@@ -3838,7 +3838,7 @@
         <v>210</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
         <v>7.2</v>
@@ -3868,13 +3868,13 @@
         <v>270</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM25" t="n">
         <v>330</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3931,7 +3931,7 @@
         <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O26" t="n">
         <v>1.61</v>
@@ -3949,7 +3949,7 @@
         <v>6</v>
       </c>
       <c r="T26" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="n">
         <v>1.65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -685,7 +685,7 @@
         <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -721,10 +721,10 @@
         <v>1.41</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>20</v>
@@ -736,7 +736,7 @@
         <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>14</v>
@@ -802,37 +802,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="G3" t="n">
         <v>1.89</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
         <v>3.55</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
         <v>2.46</v>
@@ -841,13 +841,13 @@
         <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
         <v>1.2</v>
@@ -859,7 +859,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>980</v>
@@ -868,7 +868,7 @@
         <v>200</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
         <v>8</v>
@@ -880,10 +880,10 @@
         <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>980</v>
@@ -898,13 +898,13 @@
         <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>250</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>200</v>
@@ -946,10 +946,10 @@
         <v>1.84</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>5.1</v>
@@ -985,7 +985,7 @@
         <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W4" t="n">
         <v>1.23</v>
@@ -1078,7 +1078,7 @@
         <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I5" t="n">
         <v>2.78</v>
@@ -1114,7 +1114,7 @@
         <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
         <v>2.06</v>
@@ -1126,55 +1126,55 @@
         <v>1.43</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="n">
         <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO5" t="n">
         <v>28</v>
@@ -1210,13 +1210,13 @@
         <v>1.97</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
@@ -1237,31 +1237,31 @@
         <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q6" t="n">
         <v>2.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S6" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="U6" t="n">
         <v>1.61</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>12.5</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC6" t="n">
         <v>7.8</v>
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="R7" t="n">
         <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
         <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>6.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
         <v>55</v>
@@ -1426,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="K8" t="n">
         <v>3.1</v>
@@ -1501,34 +1501,34 @@
         <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U8" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V8" t="n">
         <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1546,19 +1546,19 @@
         <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H9" t="n">
         <v>8.800000000000001</v>
@@ -1636,7 +1636,7 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
@@ -1645,13 +1645,13 @@
         <v>2.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R9" t="n">
         <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T9" t="n">
         <v>1.83</v>
@@ -1660,61 +1660,61 @@
         <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
         <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
         <v>120</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,16 +1753,16 @@
         <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.23</v>
@@ -1786,73 +1786,73 @@
         <v>1.68</v>
       </c>
       <c r="S10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T10" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V10" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="11">
@@ -1891,16 +1891,16 @@
         <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1912,25 +1912,25 @@
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
         <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
         <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
         <v>1.64</v>
@@ -1945,7 +1945,7 @@
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
         <v>11</v>
@@ -1957,7 +1957,7 @@
         <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="n">
         <v>16.5</v>
@@ -1969,16 +1969,16 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
         <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
         <v>95</v>
@@ -1987,7 +1987,7 @@
         <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -2020,16 +2020,16 @@
         <v>4.6</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H12" t="n">
         <v>1.94</v>
       </c>
       <c r="I12" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
         <v>3.5</v>
@@ -2041,16 +2041,16 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
@@ -2059,19 +2059,19 @@
         <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
         <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="W12" t="n">
         <v>1.23</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>7.8</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G13" t="n">
         <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -2191,22 +2191,22 @@
         <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.800000000000001</v>
@@ -2242,19 +2242,19 @@
         <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
         <v>60</v>
       </c>
       <c r="AL13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G14" t="n">
         <v>2.02</v>
@@ -2359,7 +2359,7 @@
         <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="G15" t="n">
         <v>1.93</v>
@@ -2437,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.27</v>
@@ -2455,22 +2455,22 @@
         <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R15" t="n">
         <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T15" t="n">
         <v>1.62</v>
       </c>
       <c r="U15" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
         <v>2.06</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -2569,7 +2569,7 @@
         <v>2.74</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>3.5</v>
@@ -2581,7 +2581,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
@@ -2590,13 +2590,13 @@
         <v>1.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
         <v>1.71</v>
@@ -2614,10 +2614,10 @@
         <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA16" t="n">
         <v>40</v>
@@ -2656,7 +2656,7 @@
         <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
         <v>980</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="G17" t="n">
         <v>1.61</v>
@@ -2719,7 +2719,7 @@
         <v>3.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
         <v>2.04</v>
@@ -2737,7 +2737,7 @@
         <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
         <v>1.14</v>
@@ -2782,7 +2782,7 @@
         <v>100</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK17" t="n">
         <v>17.5</v>
@@ -2794,7 +2794,7 @@
         <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
         <v>170</v>
@@ -2884,7 +2884,7 @@
         <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>32</v>
@@ -2905,13 +2905,13 @@
         <v>46</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>55</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="G19" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="H19" t="n">
         <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2995,13 +2995,13 @@
         <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>1.7</v>
@@ -3010,13 +3010,13 @@
         <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="X19" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
         <v>20</v>
@@ -3025,49 +3025,49 @@
         <v>36</v>
       </c>
       <c r="AA19" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG19" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AH19" t="n">
         <v>17</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AI19" t="n">
         <v>55</v>
       </c>
-      <c r="AF19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
         <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.7</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.75</v>
-      </c>
       <c r="H20" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
@@ -3130,13 +3130,13 @@
         <v>1.86</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R20" t="n">
         <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T20" t="n">
         <v>1.87</v>
@@ -3145,10 +3145,10 @@
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X20" t="n">
         <v>12.5</v>
@@ -3166,16 +3166,16 @@
         <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
         <v>11</v>
       </c>
       <c r="AE20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF20" t="n">
         <v>24</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -3238,10 +3238,10 @@
         <v>3.85</v>
       </c>
       <c r="H21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I21" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
@@ -3262,7 +3262,7 @@
         <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
         <v>2.06</v>
@@ -3274,7 +3274,7 @@
         <v>3.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
@@ -3286,46 +3286,46 @@
         <v>1.35</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AA21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE21" t="n">
         <v>34</v>
       </c>
-      <c r="AB21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>28</v>
-      </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK21" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL21" t="n">
         <v>60</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -3376,10 +3376,10 @@
         <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
         <v>3.9</v>
@@ -3391,7 +3391,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O22" t="n">
         <v>1.39</v>
@@ -3403,16 +3403,16 @@
         <v>2.14</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S22" t="n">
         <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="U22" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V22" t="n">
         <v>1.21</v>
@@ -3421,37 +3421,37 @@
         <v>2.02</v>
       </c>
       <c r="X22" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF22" t="n">
         <v>13</v>
       </c>
-      <c r="Y22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11</v>
-      </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
         <v>110</v>
@@ -3460,16 +3460,16 @@
         <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3505,55 +3505,55 @@
         <v>4.6</v>
       </c>
       <c r="G23" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H23" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="I23" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="J23" t="n">
         <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U23" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W23" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -3571,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>10.5</v>
@@ -3592,16 +3592,16 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM23" t="n">
         <v>120</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>130</v>
       </c>
       <c r="AN23" t="n">
         <v>90</v>
@@ -3640,7 +3640,7 @@
         <v>1.93</v>
       </c>
       <c r="G24" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
         <v>5.2</v>
@@ -3649,28 +3649,28 @@
         <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
         <v>3.3</v>
       </c>
       <c r="L24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.63</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.62</v>
-      </c>
       <c r="P24" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="R24" t="n">
         <v>1.15</v>
@@ -3682,13 +3682,13 @@
         <v>2.32</v>
       </c>
       <c r="U24" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V24" t="n">
         <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
         <v>8.199999999999999</v>
@@ -3697,16 +3697,16 @@
         <v>970</v>
       </c>
       <c r="Z24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA24" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB24" t="n">
         <v>6.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>970</v>
@@ -3793,7 +3793,7 @@
         <v>1.68</v>
       </c>
       <c r="M25" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N25" t="n">
         <v>2.34</v>
@@ -3805,7 +3805,7 @@
         <v>1.42</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R25" t="n">
         <v>1.13</v>
@@ -3838,7 +3838,7 @@
         <v>210</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
         <v>7.2</v>
@@ -3847,10 +3847,10 @@
         <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG25" t="n">
         <v>20</v>
@@ -3916,13 +3916,13 @@
         <v>5.1</v>
       </c>
       <c r="I26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.62</v>
@@ -3931,7 +3931,7 @@
         <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O26" t="n">
         <v>1.61</v>
@@ -4000,7 +4000,7 @@
         <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4045,25 +4045,25 @@
         <v>4.4</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H27" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I27" t="n">
         <v>2.1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.42</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
         <v>2.56</v>
@@ -4075,7 +4075,7 @@
         <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
         <v>1.23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -670,19 +670,19 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H2" t="n">
         <v>2.32</v>
       </c>
       <c r="I2" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.39</v>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.31</v>
@@ -715,7 +715,7 @@
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>1.41</v>
@@ -727,13 +727,13 @@
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
         <v>9.6</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.52</v>
@@ -826,7 +826,7 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O3" t="n">
         <v>1.47</v>
@@ -835,7 +835,7 @@
         <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
         <v>1.21</v>
@@ -847,22 +847,22 @@
         <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="n">
         <v>200</v>
@@ -871,40 +871,40 @@
         <v>6.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
         <v>140</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
         <v>200</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G5" t="n">
         <v>3.3</v>
@@ -1105,7 +1105,7 @@
         <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
@@ -1123,7 +1123,7 @@
         <v>1.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
@@ -1174,7 +1174,7 @@
         <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>28</v>
@@ -1216,7 +1216,7 @@
         <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
@@ -1255,10 +1255,10 @@
         <v>1.61</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="X6" t="n">
         <v>8</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H7" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.45</v>
@@ -1366,22 +1366,22 @@
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P7" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T7" t="n">
         <v>2.6</v>
@@ -1390,16 +1390,16 @@
         <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
         <v>120</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1435,10 +1435,10 @@
         <v>14.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -1504,10 +1504,10 @@
         <v>2.32</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
@@ -1516,13 +1516,13 @@
         <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T8" t="n">
         <v>2.26</v>
       </c>
       <c r="U8" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V8" t="n">
         <v>1.32</v>
@@ -1558,7 +1558,7 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
@@ -1615,10 +1615,10 @@
         <v>1.36</v>
       </c>
       <c r="G9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
         <v>10.5</v>
@@ -1627,7 +1627,7 @@
         <v>5.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1642,13 +1642,13 @@
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q9" t="n">
         <v>1.54</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
         <v>2.34</v>
@@ -1663,7 +1663,7 @@
         <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X9" t="n">
         <v>34</v>
@@ -1672,7 +1672,7 @@
         <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1687,19 +1687,19 @@
         <v>36</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
@@ -1714,10 +1714,10 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -1846,7 +1846,7 @@
         <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
         <v>46</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1927,13 +1927,13 @@
         <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W11" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X11" t="n">
         <v>15.5</v>
@@ -1942,7 +1942,7 @@
         <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA11" t="n">
         <v>55</v>
@@ -1957,10 +1957,10 @@
         <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1969,25 +1969,25 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
         <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
         <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="n">
         <v>5.2</v>
@@ -2026,7 +2026,7 @@
         <v>1.94</v>
       </c>
       <c r="I12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2065,7 +2065,7 @@
         <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W12" t="n">
         <v>1.23</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
@@ -2110,7 +2110,7 @@
         <v>150</v>
       </c>
       <c r="AK12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL12" t="n">
         <v>110</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
         <v>2.24</v>
       </c>
       <c r="I13" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
         <v>3.3</v>
@@ -2176,7 +2176,7 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O13" t="n">
         <v>1.45</v>
@@ -2185,22 +2185,22 @@
         <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R13" t="n">
         <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="W13" t="n">
         <v>1.32</v>
@@ -2209,7 +2209,7 @@
         <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z13" t="n">
         <v>14.5</v>
@@ -2254,7 +2254,7 @@
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2290,19 +2290,19 @@
         <v>1.9</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.33</v>
@@ -2311,7 +2311,7 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.31</v>
@@ -2329,16 +2329,16 @@
         <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
         <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X14" t="n">
         <v>18</v>
@@ -2356,10 +2356,10 @@
         <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
         <v>1.93</v>
@@ -2437,13 +2437,13 @@
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.27</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
         <v>5.1</v>
@@ -2455,22 +2455,22 @@
         <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
         <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U15" t="n">
         <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
         <v>2.06</v>
@@ -2563,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I16" t="n">
         <v>2.74</v>
@@ -2575,7 +2575,7 @@
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2587,19 +2587,19 @@
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
         <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
         <v>2.22</v>
@@ -2611,19 +2611,19 @@
         <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
         <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
         <v>40</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
         <v>9.4</v>
@@ -2632,16 +2632,16 @@
         <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
         <v>44</v>
@@ -2659,7 +2659,7 @@
         <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
@@ -2704,19 +2704,19 @@
         <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
@@ -2758,7 +2758,7 @@
         <v>250</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>10.5</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
         <v>2.4</v>
@@ -2836,7 +2836,7 @@
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2845,7 +2845,7 @@
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2857,7 +2857,7 @@
         <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q18" t="n">
         <v>1.75</v>
@@ -2875,19 +2875,19 @@
         <v>2.34</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W18" t="n">
         <v>1.71</v>
       </c>
       <c r="X18" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
         <v>70</v>
@@ -2899,10 +2899,10 @@
         <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
         <v>1000</v>
@@ -2917,22 +2917,22 @@
         <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>85</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
@@ -2980,7 +2980,7 @@
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2998,7 +2998,7 @@
         <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
         <v>3</v>
@@ -3007,7 +3007,7 @@
         <v>1.7</v>
       </c>
       <c r="U19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
         <v>1.29</v>
@@ -3028,10 +3028,10 @@
         <v>90</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>16.5</v>
@@ -3061,7 +3061,7 @@
         <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
         <v>13</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.65</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.7</v>
-      </c>
       <c r="H20" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="I20" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="J20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.46</v>
@@ -3121,19 +3121,19 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q20" t="n">
         <v>2.14</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S20" t="n">
         <v>3.9</v>
@@ -3145,7 +3145,7 @@
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="W20" t="n">
         <v>1.37</v>
@@ -3154,13 +3154,13 @@
         <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB20" t="n">
         <v>13</v>
@@ -3178,13 +3178,13 @@
         <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
         <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
         <v>70</v>
@@ -3199,10 +3199,10 @@
         <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO20" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -3238,13 +3238,13 @@
         <v>3.85</v>
       </c>
       <c r="H21" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
         <v>3.65</v>
@@ -3253,40 +3253,40 @@
         <v>1.35</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
         <v>3.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
         <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="R21" t="n">
         <v>1.3</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="W21" t="n">
         <v>1.35</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
@@ -3295,7 +3295,7 @@
         <v>17.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -3304,25 +3304,25 @@
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
         <v>18.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="n">
         <v>55</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -3376,10 +3376,10 @@
         <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
         <v>3.9</v>
@@ -3397,10 +3397,10 @@
         <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R22" t="n">
         <v>1.26</v>
@@ -3508,13 +3508,13 @@
         <v>5.1</v>
       </c>
       <c r="H23" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="I23" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
         <v>3.75</v>
@@ -3526,31 +3526,31 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P23" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R23" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T23" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W23" t="n">
         <v>1.24</v>
@@ -3565,7 +3565,7 @@
         <v>11.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB23" t="n">
         <v>16</v>
@@ -3640,19 +3640,19 @@
         <v>1.93</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J24" t="n">
         <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
         <v>1.64</v>
@@ -3670,13 +3670,13 @@
         <v>1.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="R24" t="n">
         <v>1.15</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T24" t="n">
         <v>2.32</v>
@@ -3688,7 +3688,7 @@
         <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="X24" t="n">
         <v>8.199999999999999</v>
@@ -3796,22 +3796,22 @@
         <v>1.15</v>
       </c>
       <c r="N25" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="O25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="P25" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R25" t="n">
         <v>1.13</v>
       </c>
       <c r="S25" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T25" t="n">
         <v>2.36</v>
@@ -3832,13 +3832,13 @@
         <v>7.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC25" t="n">
         <v>7.2</v>
@@ -3847,7 +3847,7 @@
         <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="n">
         <v>18.5</v>
@@ -3862,10 +3862,10 @@
         <v>120</v>
       </c>
       <c r="AJ25" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="AK25" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AL25" t="n">
         <v>100</v>
@@ -3931,7 +3931,7 @@
         <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="O26" t="n">
         <v>1.61</v>
@@ -4045,7 +4045,7 @@
         <v>4.4</v>
       </c>
       <c r="G27" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H27" t="n">
         <v>1.88</v>
@@ -4060,7 +4060,7 @@
         <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
@@ -4069,7 +4069,7 @@
         <v>2.56</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P27" t="n">
         <v>1.62</v>
@@ -4078,7 +4078,7 @@
         <v>2.12</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
         <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,13 +697,13 @@
         <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
         <v>3.3</v>
@@ -715,16 +715,16 @@
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
         <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
         <v>19.5</v>
@@ -739,13 +739,13 @@
         <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,19 +805,19 @@
         <v>1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H3" t="n">
         <v>5.8</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
         <v>1.52</v>
@@ -826,25 +826,25 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
         <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
         <v>1.74</v>
@@ -859,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z3" t="n">
         <v>44</v>
@@ -883,13 +883,13 @@
         <v>9.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
         <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="AJ3" t="n">
         <v>19.5</v>
@@ -949,10 +949,10 @@
         <v>2.04</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -961,16 +961,16 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
         <v>1.37</v>
@@ -982,19 +982,19 @@
         <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>1.96</v>
       </c>
       <c r="W4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,10 +1006,10 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1075,10 +1075,10 @@
         <v>2.88</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I5" t="n">
         <v>2.78</v>
@@ -1096,7 +1096,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
@@ -1111,7 +1111,7 @@
         <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T5" t="n">
         <v>1.78</v>
@@ -1126,22 +1126,22 @@
         <v>1.44</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1153,16 +1153,16 @@
         <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AK5" t="n">
         <v>44</v>
@@ -1171,10 +1171,10 @@
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO5" t="n">
         <v>28</v>
@@ -1216,7 +1216,7 @@
         <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
@@ -1225,13 +1225,13 @@
         <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O6" t="n">
         <v>1.62</v>
@@ -1252,7 +1252,7 @@
         <v>2.3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
         <v>1.21</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1303,7 +1303,7 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
@@ -1438,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1483,13 +1483,13 @@
         <v>2.54</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K8" t="n">
         <v>3.1</v>
@@ -1519,7 +1519,7 @@
         <v>6.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
         <v>1.66</v>
@@ -1531,40 +1531,40 @@
         <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="Z8" t="n">
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="n">
         <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ8" t="n">
         <v>980</v>
@@ -1573,16 +1573,16 @@
         <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN8" t="n">
         <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G9" t="n">
         <v>1.42</v>
@@ -1633,7 +1633,7 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>5.4</v>
@@ -1657,7 +1657,7 @@
         <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1.11</v>
@@ -1666,7 +1666,7 @@
         <v>3.35</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
         <v>38</v>
@@ -1681,13 +1681,13 @@
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD9" t="n">
         <v>36</v>
       </c>
       <c r="AE9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
         <v>9.800000000000001</v>
@@ -1696,19 +1696,19 @@
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
         <v>110</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
         <v>16.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1753,46 +1753,46 @@
         <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="U10" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="V10" t="n">
         <v>2.32</v>
@@ -1804,40 +1804,40 @@
         <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
         <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
         <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="AK10" t="n">
         <v>65</v>
@@ -1846,13 +1846,13 @@
         <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AN10" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="G11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -1900,7 +1900,7 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1912,10 +1912,10 @@
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.94</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.95</v>
       </c>
       <c r="R11" t="n">
         <v>1.36</v>
@@ -1930,10 +1930,10 @@
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X11" t="n">
         <v>15.5</v>
@@ -1945,7 +1945,7 @@
         <v>19.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
         <v>11</v>
@@ -1960,7 +1960,7 @@
         <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1969,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
         <v>38</v>
@@ -1981,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
         <v>23</v>
@@ -2017,40 +2017,40 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G12" t="n">
         <v>5.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="I12" t="n">
         <v>2.02</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>1.51</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
@@ -2059,7 +2059,7 @@
         <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="U12" t="n">
         <v>1.81</v>
@@ -2074,55 +2074,55 @@
         <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB12" t="n">
         <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
         <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="n">
         <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>85</v>
+        <v>700</v>
       </c>
       <c r="AL12" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="AM12" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I13" t="n">
         <v>2.26</v>
@@ -2167,7 +2167,7 @@
         <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
         <v>1.5</v>
@@ -2176,28 +2176,28 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
         <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="R13" t="n">
         <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
         <v>1.79</v>
@@ -2206,7 +2206,7 @@
         <v>1.32</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.4</v>
@@ -2224,10 +2224,10 @@
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF13" t="n">
         <v>27</v>
@@ -2242,7 +2242,7 @@
         <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK13" t="n">
         <v>60</v>
@@ -2251,10 +2251,10 @@
         <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN13" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2290,7 +2290,7 @@
         <v>1.9</v>
       </c>
       <c r="G14" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
@@ -2299,7 +2299,7 @@
         <v>4.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>3.9</v>
@@ -2323,7 +2323,7 @@
         <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
         <v>3.3</v>
@@ -2335,10 +2335,10 @@
         <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
         <v>18</v>
@@ -2377,7 +2377,7 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
         <v>25</v>
@@ -2440,22 +2440,22 @@
         <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R15" t="n">
         <v>1.57</v>
@@ -2464,10 +2464,10 @@
         <v>2.58</v>
       </c>
       <c r="T15" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V15" t="n">
         <v>1.29</v>
@@ -2479,7 +2479,7 @@
         <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
         <v>36</v>
@@ -2494,7 +2494,7 @@
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>48</v>
@@ -2506,10 +2506,10 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
         <v>22</v>
@@ -2521,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AN15" t="n">
         <v>9.4</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="I16" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
         <v>3.4</v>
@@ -2575,13 +2575,13 @@
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
@@ -2599,16 +2599,16 @@
         <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U16" t="n">
         <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
@@ -2620,43 +2620,43 @@
         <v>17.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH16" t="n">
         <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
         <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
         <v>32</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="G17" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I17" t="n">
         <v>8</v>
@@ -2710,7 +2710,7 @@
         <v>4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2722,7 +2722,7 @@
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
         <v>1.79</v>
@@ -2734,16 +2734,16 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X17" t="n">
         <v>17.5</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="n">
         <v>250</v>
@@ -2770,7 +2770,7 @@
         <v>110</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
@@ -2785,7 +2785,7 @@
         <v>14.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
         <v>38</v>
@@ -2794,7 +2794,7 @@
         <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO17" t="n">
         <v>170</v>
@@ -2839,7 +2839,7 @@
         <v>3.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
@@ -2851,7 +2851,7 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -2863,16 +2863,16 @@
         <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
         <v>2.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
         <v>1.39</v>
@@ -2881,55 +2881,55 @@
         <v>1.71</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z18" t="n">
         <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="n">
         <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL18" t="n">
         <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO18" t="n">
         <v>980</v>
@@ -2965,43 +2965,43 @@
         <v>1.98</v>
       </c>
       <c r="G19" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
         <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
         <v>1.7</v>
@@ -3010,10 +3010,10 @@
         <v>2.24</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X19" t="n">
         <v>16.5</v>
@@ -3031,7 +3031,7 @@
         <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
         <v>16.5</v>
@@ -3058,10 +3058,10 @@
         <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
         <v>13</v>
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="G20" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="I20" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P20" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
         <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="W20" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG20" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3274,7 +3274,7 @@
         <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
         <v>2.02</v>
@@ -3286,7 +3286,7 @@
         <v>1.35</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
@@ -3301,7 +3301,7 @@
         <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
         <v>14</v>
@@ -3316,19 +3316,19 @@
         <v>18.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AJ21" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AK21" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3376,7 +3376,7 @@
         <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="J22" t="n">
         <v>3.35</v>
@@ -3397,16 +3397,16 @@
         <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R22" t="n">
         <v>1.26</v>
       </c>
       <c r="S22" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
         <v>1.96</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I23" t="n">
         <v>1.92</v>
@@ -3526,16 +3526,16 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.38</v>
       </c>
       <c r="P23" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R23" t="n">
         <v>1.3</v>
@@ -3553,7 +3553,7 @@
         <v>2.08</v>
       </c>
       <c r="W23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -3571,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
         <v>10.5</v>
@@ -3598,13 +3598,13 @@
         <v>75</v>
       </c>
       <c r="AL23" t="n">
-        <v>85</v>
+        <v>700</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AO23" t="n">
         <v>16</v>
@@ -3640,10 +3640,10 @@
         <v>1.93</v>
       </c>
       <c r="G24" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I24" t="n">
         <v>5.8</v>
@@ -3652,7 +3652,7 @@
         <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.64</v>
@@ -3661,7 +3661,7 @@
         <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O24" t="n">
         <v>1.63</v>
@@ -3679,7 +3679,7 @@
         <v>6.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="U24" t="n">
         <v>1.62</v>
@@ -3688,7 +3688,7 @@
         <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
         <v>8.199999999999999</v>
@@ -3697,10 +3697,10 @@
         <v>970</v>
       </c>
       <c r="Z24" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AA24" t="n">
-        <v>220</v>
+        <v>700</v>
       </c>
       <c r="AB24" t="n">
         <v>6.2</v>
@@ -3709,40 +3709,40 @@
         <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="AJ24" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AL24" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AM24" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="AO24" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25">
@@ -3775,10 +3775,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H25" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I25" t="n">
         <v>3.1</v>
@@ -3796,7 +3796,7 @@
         <v>1.15</v>
       </c>
       <c r="N25" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O25" t="n">
         <v>1.71</v>
@@ -3820,10 +3820,10 @@
         <v>1.66</v>
       </c>
       <c r="V25" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W25" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X25" t="n">
         <v>7</v>
@@ -3838,7 +3838,7 @@
         <v>230</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
         <v>7.2</v>
@@ -3856,7 +3856,7 @@
         <v>20</v>
       </c>
       <c r="AH25" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AI25" t="n">
         <v>120</v>
@@ -3916,7 +3916,7 @@
         <v>5.1</v>
       </c>
       <c r="I26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -3931,7 +3931,7 @@
         <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.61</v>
@@ -3940,7 +3940,7 @@
         <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="R26" t="n">
         <v>1.16</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="G27" t="n">
         <v>6.2</v>
@@ -4057,37 +4057,37 @@
         <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.08</v>
       </c>
-      <c r="N27" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.37</v>
-      </c>
       <c r="P27" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="Q27" t="n">
         <v>2.12</v>
       </c>
       <c r="R27" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
         <v>1.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -667,52 +667,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G2" t="n">
         <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="I2" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
         <v>1.65</v>
@@ -721,43 +721,43 @@
         <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="n">
         <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>500</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
         <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -766,13 +766,13 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.52</v>
@@ -829,22 +829,22 @@
         <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T3" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="U3" t="n">
         <v>1.74</v>
@@ -856,7 +856,7 @@
         <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
         <v>16.5</v>
@@ -868,31 +868,31 @@
         <v>200</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>700</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK3" t="n">
         <v>24</v>
@@ -904,10 +904,10 @@
         <v>240</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="I4" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -961,16 +961,16 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
         <v>1.37</v>
@@ -985,34 +985,34 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="W4" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
         <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1036,13 +1036,13 @@
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G5" t="n">
         <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I5" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J5" t="n">
         <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
         <v>1.43</v>
@@ -1096,13 +1096,13 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
         <v>2.02</v>
@@ -1114,10 +1114,10 @@
         <v>3.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
         <v>1.56</v>
@@ -1126,58 +1126,58 @@
         <v>1.44</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AD5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG5" t="n">
         <v>20</v>
       </c>
-      <c r="AA5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>16</v>
-      </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="AK5" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AM5" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +1225,7 @@
         <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1249,13 +1249,13 @@
         <v>5.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
         <v>1.85</v>
@@ -1288,7 +1288,7 @@
         <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>32</v>
@@ -1297,19 +1297,19 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK6" t="n">
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1360,7 +1360,7 @@
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1396,13 +1396,13 @@
         <v>2.78</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,28 +1411,28 @@
         <v>5.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
         <v>24</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1486,13 +1486,13 @@
         <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
         <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L8" t="n">
         <v>1.6</v>
@@ -1501,7 +1501,7 @@
         <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O8" t="n">
         <v>1.63</v>
@@ -1510,7 +1510,7 @@
         <v>1.43</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R8" t="n">
         <v>1.15</v>
@@ -1519,25 +1519,25 @@
         <v>6.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="U8" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
         <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AA8" t="n">
         <v>500</v>
@@ -1555,22 +1555,22 @@
         <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH8" t="n">
         <v>500</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>980</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
         <v>500</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G9" t="n">
         <v>1.42</v>
@@ -1633,7 +1633,7 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>5.4</v>
@@ -1642,10 +1642,10 @@
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
         <v>1.61</v>
@@ -1666,13 +1666,13 @@
         <v>3.35</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
         <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>36</v>
@@ -1690,25 +1690,25 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>30</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>32</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>5.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.2</v>
@@ -1771,88 +1771,88 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R10" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S10" t="n">
         <v>2.22</v>
       </c>
       <c r="T10" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="V10" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="W10" t="n">
         <v>1.25</v>
       </c>
       <c r="X10" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE10" t="n">
         <v>34</v>
       </c>
-      <c r="Y10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AF10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI10" t="n">
         <v>55</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>700</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM10" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN10" t="n">
         <v>500</v>
       </c>
-      <c r="AN10" t="n">
-        <v>980</v>
-      </c>
       <c r="AO10" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G11" t="n">
         <v>2.6</v>
@@ -1891,16 +1891,16 @@
         <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1912,7 +1912,7 @@
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
         <v>1.94</v>
@@ -1933,7 +1933,7 @@
         <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X11" t="n">
         <v>15.5</v>
@@ -1942,10 +1942,10 @@
         <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB11" t="n">
         <v>11</v>
@@ -1960,7 +1960,7 @@
         <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1969,22 +1969,22 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
         <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
         <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="I12" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
         <v>3.65</v>
@@ -2047,7 +2047,7 @@
         <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q12" t="n">
         <v>2.34</v>
@@ -2056,16 +2056,16 @@
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V12" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
         <v>1.23</v>
@@ -2077,52 +2077,52 @@
         <v>7.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AH12" t="n">
         <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
         <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="AL12" t="n">
         <v>700</v>
       </c>
       <c r="AM12" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>500</v>
       </c>
       <c r="AO12" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2164,31 +2164,31 @@
         <v>2.26</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
         <v>3.35</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
         <v>2.32</v>
       </c>
       <c r="R13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
         <v>4.5</v>
@@ -2206,37 +2206,37 @@
         <v>1.32</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA13" t="n">
         <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
         <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
@@ -2251,10 +2251,10 @@
         <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G14" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
@@ -2299,13 +2299,13 @@
         <v>4.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2320,7 +2320,7 @@
         <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
         <v>1.37</v>
@@ -2338,7 +2338,7 @@
         <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X14" t="n">
         <v>18</v>
@@ -2347,7 +2347,7 @@
         <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2362,7 +2362,7 @@
         <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF14" t="n">
         <v>15</v>
@@ -2374,7 +2374,7 @@
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ14" t="n">
         <v>27</v>
@@ -2383,16 +2383,16 @@
         <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>16.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -2449,10 +2449,10 @@
         <v>5.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q15" t="n">
         <v>1.64</v>
@@ -2464,10 +2464,10 @@
         <v>2.58</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U15" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="V15" t="n">
         <v>1.29</v>
@@ -2488,7 +2488,7 @@
         <v>85</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -2503,13 +2503,13 @@
         <v>14.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
         <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
         <v>22</v>
@@ -2518,13 +2518,13 @@
         <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO15" t="n">
         <v>38</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G16" t="n">
         <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I16" t="n">
         <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
         <v>3.5</v>
@@ -2581,7 +2581,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
@@ -2602,7 +2602,7 @@
         <v>1.74</v>
       </c>
       <c r="U16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
         <v>1.58</v>
@@ -2611,43 +2611,43 @@
         <v>1.46</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
         <v>17.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
         <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF16" t="n">
         <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AK16" t="n">
         <v>34</v>
@@ -2662,7 +2662,7 @@
         <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G17" t="n">
         <v>1.6</v>
@@ -2722,16 +2722,16 @@
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T17" t="n">
         <v>1.91</v>
@@ -2740,34 +2740,34 @@
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W17" t="n">
         <v>2.66</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AA17" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
         <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AF17" t="n">
         <v>9.800000000000001</v>
@@ -2776,10 +2776,10 @@
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="AJ17" t="n">
         <v>14.5</v>
@@ -2791,13 +2791,13 @@
         <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="AN17" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO17" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I18" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L18" t="n">
         <v>1.28</v>
@@ -2863,28 +2863,28 @@
         <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S18" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="T18" t="n">
         <v>1.66</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V18" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X18" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
         <v>980</v>
@@ -2893,25 +2893,25 @@
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
         <v>500</v>
@@ -2929,7 +2929,7 @@
         <v>500</v>
       </c>
       <c r="AN18" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
         <v>980</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H19" t="n">
         <v>4.1</v>
@@ -2974,13 +2974,13 @@
         <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2995,7 +2995,7 @@
         <v>2.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R19" t="n">
         <v>1.42</v>
@@ -3010,25 +3010,25 @@
         <v>2.24</v>
       </c>
       <c r="V19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z19" t="n">
         <v>36</v>
       </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3058,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
         <v>90</v>
@@ -3097,28 +3097,28 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="I20" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
         <v>3.5</v>
@@ -3127,7 +3127,7 @@
         <v>1.38</v>
       </c>
       <c r="P20" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q20" t="n">
         <v>2.18</v>
@@ -3139,16 +3139,16 @@
         <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W20" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X20" t="n">
         <v>12</v>
@@ -3160,25 +3160,25 @@
         <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD20" t="n">
         <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>18</v>
@@ -3190,13 +3190,13 @@
         <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
         <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
         <v>40</v>
@@ -3232,37 +3232,37 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H21" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="I21" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="J21" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="O21" t="n">
         <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q21" t="n">
         <v>1.99</v>
@@ -3280,40 +3280,40 @@
         <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X21" t="n">
         <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AG21" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
         <v>25</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3385,7 +3385,7 @@
         <v>3.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3406,7 +3406,7 @@
         <v>1.26</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
         <v>1.96</v>
@@ -3421,55 +3421,55 @@
         <v>2.02</v>
       </c>
       <c r="X22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z22" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="I23" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
         <v>3.75</v>
@@ -3532,7 +3532,7 @@
         <v>1.38</v>
       </c>
       <c r="P23" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q23" t="n">
         <v>2.16</v>
@@ -3541,37 +3541,37 @@
         <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
         <v>1.25</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
         <v>10.5</v>
@@ -3580,16 +3580,16 @@
         <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="n">
         <v>130</v>
@@ -3598,10 +3598,10 @@
         <v>75</v>
       </c>
       <c r="AL23" t="n">
-        <v>700</v>
+        <v>85</v>
       </c>
       <c r="AM23" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
         <v>500</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G24" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I24" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J24" t="n">
         <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L24" t="n">
         <v>1.64</v>
@@ -3661,7 +3661,7 @@
         <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O24" t="n">
         <v>1.63</v>
@@ -3676,13 +3676,13 @@
         <v>1.15</v>
       </c>
       <c r="S24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U24" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V24" t="n">
         <v>1.2</v>
@@ -3694,10 +3694,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AA24" t="n">
         <v>700</v>
@@ -3709,31 +3709,31 @@
         <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE24" t="n">
         <v>700</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
         <v>700</v>
       </c>
       <c r="AJ24" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AK24" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="AM24" t="n">
         <v>500</v>
@@ -3775,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>2.92</v>
@@ -3796,7 +3796,7 @@
         <v>1.15</v>
       </c>
       <c r="N25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O25" t="n">
         <v>1.71</v>
@@ -3814,16 +3814,16 @@
         <v>7.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W25" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X25" t="n">
         <v>7</v>
@@ -3832,13 +3832,13 @@
         <v>7.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA25" t="n">
         <v>230</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
         <v>7.2</v>
@@ -3850,13 +3850,13 @@
         <v>240</v>
       </c>
       <c r="AF25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
         <v>20</v>
       </c>
       <c r="AH25" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="n">
         <v>120</v>
@@ -3868,13 +3868,13 @@
         <v>290</v>
       </c>
       <c r="AL25" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AM25" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AN25" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3916,7 +3916,7 @@
         <v>5.1</v>
       </c>
       <c r="I26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -3925,28 +3925,28 @@
         <v>3.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M26" t="n">
         <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="O26" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P26" t="n">
         <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="R26" t="n">
         <v>1.16</v>
       </c>
       <c r="S26" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T26" t="n">
         <v>2.38</v>
@@ -3967,7 +3967,7 @@
         <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="n">
         <v>220</v>
@@ -3991,13 +3991,13 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
         <v>50</v>
@@ -4006,13 +4006,13 @@
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AN26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO26" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="G27" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="I27" t="n">
         <v>2.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4072,10 +4072,10 @@
         <v>1.08</v>
       </c>
       <c r="P27" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
         <v>1.14</v>
@@ -4090,10 +4090,10 @@
         <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W27" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -673,19 +673,19 @@
         <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I2" t="n">
         <v>2.52</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
         <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -700,22 +700,22 @@
         <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U2" t="n">
         <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W2" t="n">
         <v>1.4</v>
@@ -727,7 +727,7 @@
         <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
         <v>900</v>
@@ -742,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
         <v>500</v>
@@ -751,7 +751,7 @@
         <v>30</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I3" t="n">
         <v>6.4</v>
@@ -826,25 +826,25 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O3" t="n">
         <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="R3" t="n">
         <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="U3" t="n">
         <v>1.74</v>
@@ -859,16 +859,16 @@
         <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="n">
         <v>200</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
@@ -886,7 +886,7 @@
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>700</v>
@@ -904,7 +904,7 @@
         <v>240</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>500</v>
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
         <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>3.7</v>
@@ -967,10 +967,10 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
         <v>1.37</v>
@@ -985,10 +985,10 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -997,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
         <v>900</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
         <v>2.56</v>
@@ -1105,16 +1105,16 @@
         <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
         <v>3.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1123,40 +1123,40 @@
         <v>1.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
         <v>13</v>
       </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>16</v>
-      </c>
       <c r="AE5" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
         <v>160</v>
@@ -1165,7 +1165,7 @@
         <v>210</v>
       </c>
       <c r="AK5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
         <v>250</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AO5" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +1225,7 @@
         <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1234,7 +1234,7 @@
         <v>2.34</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P6" t="n">
         <v>1.45</v>
@@ -1246,7 +1246,7 @@
         <v>1.15</v>
       </c>
       <c r="S6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T6" t="n">
         <v>2.32</v>
@@ -1258,7 +1258,7 @@
         <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X6" t="n">
         <v>8</v>
@@ -1369,7 +1369,7 @@
         <v>2.64</v>
       </c>
       <c r="O7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P7" t="n">
         <v>1.56</v>
@@ -1480,16 +1480,16 @@
         <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
         <v>3.05</v>
@@ -1504,13 +1504,13 @@
         <v>2.34</v>
       </c>
       <c r="O8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
         <v>1.43</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="R8" t="n">
         <v>1.15</v>
@@ -1519,7 +1519,7 @@
         <v>6.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
         <v>1.64</v>
@@ -1528,7 +1528,7 @@
         <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="X8" t="n">
         <v>7.8</v>
@@ -1555,7 +1555,7 @@
         <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
         <v>24</v>
@@ -1615,7 +1615,7 @@
         <v>1.36</v>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H9" t="n">
         <v>8.6</v>
@@ -1636,25 +1636,25 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q9" t="n">
         <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
@@ -1663,7 +1663,7 @@
         <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X9" t="n">
         <v>29</v>
@@ -1672,7 +1672,7 @@
         <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1684,19 +1684,19 @@
         <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J10" t="n">
         <v>4.5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
         <v>5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.2</v>
@@ -1774,19 +1774,19 @@
         <v>6.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
         <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R10" t="n">
         <v>1.72</v>
       </c>
       <c r="S10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
         <v>1.56</v>
@@ -1795,10 +1795,10 @@
         <v>2.56</v>
       </c>
       <c r="V10" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
         <v>80</v>
@@ -1807,7 +1807,7 @@
         <v>30</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
         <v>40</v>
@@ -1831,7 +1831,7 @@
         <v>500</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
@@ -1852,7 +1852,7 @@
         <v>500</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="11">
@@ -1891,7 +1891,7 @@
         <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
         <v>3.65</v>
@@ -1906,7 +1906,7 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
@@ -1930,10 +1930,10 @@
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X11" t="n">
         <v>15.5</v>
@@ -1969,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>38</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G12" t="n">
         <v>5.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="I12" t="n">
         <v>1.97</v>
@@ -2032,7 +2032,7 @@
         <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.51</v>
@@ -2047,10 +2047,10 @@
         <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
@@ -2071,22 +2071,22 @@
         <v>1.23</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
         <v>7.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
         <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>11.5</v>
@@ -2101,16 +2101,16 @@
         <v>38</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
         <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="AL12" t="n">
         <v>700</v>
@@ -2158,10 +2158,10 @@
         <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2176,7 +2176,7 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -2200,7 +2200,7 @@
         <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
         <v>1.32</v>
@@ -2209,13 +2209,13 @@
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
@@ -2227,7 +2227,7 @@
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF13" t="n">
         <v>27</v>
@@ -2236,7 +2236,7 @@
         <v>17.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
@@ -2257,7 +2257,7 @@
         <v>75</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>1.89</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
@@ -2338,7 +2338,7 @@
         <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
         <v>18</v>
@@ -2425,7 +2425,7 @@
         <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -2524,7 +2524,7 @@
         <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO15" t="n">
         <v>38</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G16" t="n">
         <v>3.15</v>
@@ -2653,10 +2653,10 @@
         <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
         <v>32</v>
@@ -2710,10 +2710,10 @@
         <v>4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -2728,7 +2728,7 @@
         <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
         <v>3.05</v>
@@ -2752,7 +2752,7 @@
         <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="AA17" t="n">
         <v>700</v>
@@ -2980,7 +2980,7 @@
         <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2995,7 +2995,7 @@
         <v>2.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R19" t="n">
         <v>1.42</v>
@@ -3025,7 +3025,7 @@
         <v>36</v>
       </c>
       <c r="AA19" t="n">
-        <v>85</v>
+        <v>900</v>
       </c>
       <c r="AB19" t="n">
         <v>11</v>
@@ -3109,7 +3109,7 @@
         <v>2.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
         <v>3.4</v>
@@ -3121,7 +3121,7 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O20" t="n">
         <v>1.38</v>
@@ -3136,10 +3136,10 @@
         <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
@@ -3184,10 +3184,10 @@
         <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
         <v>40</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G21" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="I21" t="n">
         <v>2.58</v>
       </c>
       <c r="J21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>1.31</v>
@@ -3259,19 +3259,19 @@
         <v>3.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
         <v>1.84</v>
@@ -3280,13 +3280,13 @@
         <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W21" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
         <v>10.5</v>
@@ -3295,7 +3295,7 @@
         <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
@@ -3313,10 +3313,10 @@
         <v>70</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
         <v>500</v>
@@ -3406,7 +3406,7 @@
         <v>1.26</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="T22" t="n">
         <v>1.96</v>
@@ -3511,7 +3511,7 @@
         <v>1.87</v>
       </c>
       <c r="I23" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="J23" t="n">
         <v>3.7</v>
@@ -3550,7 +3550,7 @@
         <v>1.93</v>
       </c>
       <c r="V23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W23" t="n">
         <v>1.25</v>
@@ -3568,13 +3568,13 @@
         <v>20</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
         <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>22</v>
@@ -3607,7 +3607,7 @@
         <v>500</v>
       </c>
       <c r="AO23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="G24" t="n">
         <v>2.02</v>
@@ -3661,13 +3661,13 @@
         <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O24" t="n">
         <v>1.63</v>
       </c>
       <c r="P24" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q24" t="n">
         <v>2.9</v>
@@ -3679,10 +3679,10 @@
         <v>6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V24" t="n">
         <v>1.2</v>
@@ -3778,7 +3778,7 @@
         <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I25" t="n">
         <v>3.1</v>
@@ -3787,7 +3787,7 @@
         <v>2.86</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L25" t="n">
         <v>1.68</v>
@@ -3805,7 +3805,7 @@
         <v>1.41</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R25" t="n">
         <v>1.13</v>
@@ -3844,7 +3844,7 @@
         <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
         <v>240</v>
@@ -3862,7 +3862,7 @@
         <v>120</v>
       </c>
       <c r="AJ25" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AK25" t="n">
         <v>290</v>
@@ -3871,10 +3871,10 @@
         <v>120</v>
       </c>
       <c r="AM25" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AN25" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3916,13 +3916,13 @@
         <v>5.1</v>
       </c>
       <c r="I26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L26" t="n">
         <v>1.63</v>
@@ -3955,7 +3955,7 @@
         <v>1.65</v>
       </c>
       <c r="V26" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W26" t="n">
         <v>1.96</v>
@@ -3967,7 +3967,7 @@
         <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="n">
         <v>220</v>
@@ -4000,13 +4000,13 @@
         <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AN26" t="n">
         <v>28</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G27" t="n">
         <v>6.6</v>
@@ -4051,13 +4051,13 @@
         <v>1.76</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J27" t="n">
         <v>2.88</v>
       </c>
       <c r="K27" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,19 +4066,19 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.08</v>
       </c>
       <c r="P27" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="Q27" t="n">
         <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S27" t="n">
         <v>3.05</v>
@@ -4090,10 +4090,10 @@
         <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W27" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -667,73 +667,73 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
         <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="I2" t="n">
         <v>2.52</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>3.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
         <v>1.69</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
         <v>1.66</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X2" t="n">
         <v>32</v>
       </c>
       <c r="Y2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AA2" t="n">
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AC2" t="n">
         <v>13.5</v>
@@ -748,7 +748,7 @@
         <v>500</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AH2" t="n">
         <v>46</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="G3" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -820,94 +820,94 @@
         <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
         <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
         <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI3" t="n">
         <v>120</v>
       </c>
-      <c r="AF3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>700</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
         <v>1.85</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V4" t="n">
         <v>2</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.94</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
         <v>40</v>
@@ -1024,7 +1024,7 @@
         <v>60</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1033,13 +1033,13 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
         <v>55</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
         <v>2.56</v>
       </c>
       <c r="I5" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="W5" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
         <v>13.5</v>
@@ -1156,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
         <v>160</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
         <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="O6" t="n">
         <v>1.63</v>
       </c>
       <c r="P6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="R6" t="n">
         <v>1.15</v>
       </c>
       <c r="S6" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="T6" t="n">
         <v>2.32</v>
       </c>
       <c r="U6" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
         <v>1.86</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>38</v>
@@ -1279,7 +1279,7 @@
         <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1291,7 +1291,7 @@
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1303,13 +1303,13 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G7" t="n">
         <v>1.56</v>
       </c>
       <c r="H7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="O7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
         <v>1.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
         <v>2.78</v>
       </c>
       <c r="X7" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
         <v>22</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
         <v>120</v>
@@ -1426,7 +1426,7 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,73 +1477,73 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q8" t="n">
         <v>3.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.94</v>
       </c>
       <c r="R8" t="n">
         <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="T8" t="n">
         <v>2.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
         <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
@@ -1555,7 +1555,7 @@
         <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
         <v>24</v>
@@ -1564,7 +1564,7 @@
         <v>500</v>
       </c>
       <c r="AI8" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="AJ8" t="n">
         <v>220</v>
@@ -1573,7 +1573,7 @@
         <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="AM8" t="n">
         <v>500</v>
@@ -1582,7 +1582,7 @@
         <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J9" t="n">
         <v>5.5</v>
@@ -1630,49 +1630,49 @@
         <v>6.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="X9" t="n">
         <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1684,37 +1684,37 @@
         <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
         <v>510</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,67 +1747,67 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="I10" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
         <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="U10" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="Y10" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AA10" t="n">
         <v>40</v>
@@ -1828,19 +1828,19 @@
         <v>500</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AH10" t="n">
         <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
         <v>700</v>
       </c>
       <c r="AK10" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AL10" t="n">
         <v>500</v>
@@ -1849,7 +1849,7 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
         <v>6.2</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G11" t="n">
         <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="J11" t="n">
         <v>3.65</v>
@@ -1900,43 +1900,43 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="W11" t="n">
         <v>1.62</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
         <v>12.5</v>
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
         <v>13.5</v>
@@ -1984,7 +1984,7 @@
         <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="H12" t="n">
         <v>1.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U12" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
         <v>10.5</v>
@@ -2083,34 +2083,34 @@
         <v>42</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
         <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AG12" t="n">
         <v>38</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AJ12" t="n">
         <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="AL12" t="n">
         <v>700</v>
@@ -2122,7 +2122,7 @@
         <v>500</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2152,64 +2152,64 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I13" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
         <v>3.35</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
         <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="W13" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z13" t="n">
         <v>13.5</v>
@@ -2218,7 +2218,7 @@
         <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
@@ -2233,16 +2233,16 @@
         <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AK13" t="n">
         <v>60</v>
@@ -2254,10 +2254,10 @@
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AO13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2305,25 +2305,25 @@
         <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
         <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
         <v>3.3</v>
@@ -2332,67 +2332,67 @@
         <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL14" t="n">
         <v>500</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>110</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2425,10 +2425,10 @@
         <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
         <v>4.5</v>
@@ -2437,31 +2437,31 @@
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q15" t="n">
         <v>1.64</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S15" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T15" t="n">
         <v>1.63</v>
@@ -2470,10 +2470,10 @@
         <v>2.56</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
@@ -2500,10 +2500,10 @@
         <v>48</v>
       </c>
       <c r="AF15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>17.5</v>
@@ -2512,7 +2512,7 @@
         <v>48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
         <v>19</v>
@@ -2527,7 +2527,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO15" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -2557,73 +2557,73 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
         <v>1.74</v>
       </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
         <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AC16" t="n">
         <v>7.8</v>
@@ -2638,31 +2638,31 @@
         <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>500</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>120</v>
       </c>
       <c r="AK16" t="n">
         <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2692,55 +2692,55 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="G17" t="n">
         <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I17" t="n">
         <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K17" t="n">
         <v>4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
         <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="R17" t="n">
         <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W17" t="n">
         <v>2.66</v>
@@ -2764,7 +2764,7 @@
         <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>260</v>
@@ -2776,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>520</v>
@@ -2794,7 +2794,7 @@
         <v>700</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO17" t="n">
         <v>500</v>
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
         <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
         <v>3.85</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="T18" t="n">
         <v>1.66</v>
@@ -2878,10 +2878,10 @@
         <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X18" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Y18" t="n">
         <v>970</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G19" t="n">
         <v>2.06</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
         <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2989,19 +2989,19 @@
         <v>4.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
         <v>2.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R19" t="n">
         <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
         <v>1.7</v>
@@ -3010,13 +3010,13 @@
         <v>2.24</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W19" t="n">
         <v>1.94</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
         <v>17.5</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.3</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.35</v>
-      </c>
       <c r="H20" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J20" t="n">
         <v>3.3</v>
@@ -3121,13 +3121,13 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.38</v>
       </c>
       <c r="P20" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q20" t="n">
         <v>2.18</v>
@@ -3136,22 +3136,22 @@
         <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9.6</v>
@@ -3184,10 +3184,10 @@
         <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
         <v>40</v>
@@ -3232,61 +3232,61 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="I21" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
         <v>3.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
         <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
         <v>10.5</v>
@@ -3298,16 +3298,16 @@
         <v>500</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AF21" t="n">
         <v>70</v>
@@ -3316,7 +3316,7 @@
         <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>500</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3367,100 +3367,100 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="G22" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I22" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="J22" t="n">
         <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.96</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.02</v>
       </c>
       <c r="X22" t="n">
         <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE22" t="n">
         <v>700</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL22" t="n">
         <v>130</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3511,7 +3511,7 @@
         <v>1.87</v>
       </c>
       <c r="I23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J23" t="n">
         <v>3.7</v>
@@ -3520,25 +3520,25 @@
         <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.38</v>
       </c>
       <c r="P23" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Q23" t="n">
         <v>2.16</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3550,7 +3550,7 @@
         <v>1.93</v>
       </c>
       <c r="V23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
         <v>1.25</v>
@@ -3577,34 +3577,34 @@
         <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>36</v>
       </c>
       <c r="AG23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="n">
         <v>130</v>
       </c>
       <c r="AK23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="n">
         <v>85</v>
       </c>
       <c r="AM23" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AO23" t="n">
         <v>15.5</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>5.3</v>
       </c>
       <c r="I24" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J24" t="n">
         <v>3.1</v>
@@ -3655,49 +3655,49 @@
         <v>3.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N24" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.63</v>
       </c>
       <c r="P24" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="U24" t="n">
         <v>1.64</v>
       </c>
       <c r="V24" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AA24" t="n">
         <v>700</v>
@@ -3706,7 +3706,7 @@
         <v>6.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD24" t="n">
         <v>28</v>
@@ -3715,7 +3715,7 @@
         <v>700</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
@@ -3727,19 +3727,19 @@
         <v>700</v>
       </c>
       <c r="AJ24" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AL24" t="n">
-        <v>460</v>
+        <v>190</v>
       </c>
       <c r="AM24" t="n">
         <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
         <v>500</v>
@@ -3772,49 +3772,49 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H25" t="n">
         <v>2.94</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J25" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
         <v>2.96</v>
       </c>
       <c r="L25" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="M25" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N25" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="O25" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="P25" t="n">
         <v>1.41</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S25" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="T25" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="U25" t="n">
         <v>1.65</v>
@@ -3823,7 +3823,7 @@
         <v>1.48</v>
       </c>
       <c r="W25" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X25" t="n">
         <v>7</v>
@@ -3847,19 +3847,19 @@
         <v>16</v>
       </c>
       <c r="AE25" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="n">
         <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ25" t="n">
         <v>370</v>
@@ -3871,10 +3871,10 @@
         <v>120</v>
       </c>
       <c r="AM25" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AN25" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,49 +3907,49 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G26" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H26" t="n">
         <v>5.1</v>
       </c>
       <c r="I26" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="M26" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N26" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="O26" t="n">
         <v>1.62</v>
       </c>
       <c r="P26" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="R26" t="n">
         <v>1.16</v>
       </c>
       <c r="S26" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="T26" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="U26" t="n">
         <v>1.65</v>
@@ -3958,7 +3958,7 @@
         <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X26" t="n">
         <v>7.8</v>
@@ -3970,7 +3970,7 @@
         <v>75</v>
       </c>
       <c r="AA26" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB26" t="n">
         <v>6</v>
@@ -3994,13 +3994,13 @@
         <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>28</v>
       </c>
       <c r="AO26" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
@@ -4042,46 +4042,46 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="G27" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="H27" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="I27" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>5.7</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2.4</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.16</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="T27" t="n">
         <v>1.05</v>
@@ -4090,10 +4090,10 @@
         <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W27" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -670,16 +670,16 @@
         <v>3.1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I2" t="n">
         <v>2.52</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
@@ -694,73 +694,73 @@
         <v>3.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V2" t="n">
         <v>1.66</v>
       </c>
       <c r="W2" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
         <v>32</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>500</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AG2" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AH2" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ2" t="n">
         <v>240</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
         <v>6</v>
       </c>
       <c r="J3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.5</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="V3" t="n">
         <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
         <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
         <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN3" t="n">
         <v>46</v>
       </c>
-      <c r="AI3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>21</v>
-      </c>
       <c r="AO3" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
@@ -937,76 +937,76 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="I4" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AD4" t="n">
         <v>40</v>
@@ -1021,10 +1021,10 @@
         <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1033,16 +1033,16 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G5" t="n">
         <v>3.05</v>
@@ -1081,10 +1081,10 @@
         <v>2.56</v>
       </c>
       <c r="I5" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
         <v>3.55</v>
@@ -1102,7 +1102,7 @@
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
         <v>2.08</v>
@@ -1114,10 +1114,10 @@
         <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
         <v>1.6</v>
@@ -1177,7 +1177,7 @@
         <v>70</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -1213,16 +1213,16 @@
         <v>2.16</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
         <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.65</v>
@@ -1237,7 +1237,7 @@
         <v>1.63</v>
       </c>
       <c r="P6" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q6" t="n">
         <v>2.96</v>
@@ -1255,7 +1255,7 @@
         <v>1.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
         <v>1.86</v>
@@ -1348,7 +1348,7 @@
         <v>1.56</v>
       </c>
       <c r="H7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="I7" t="n">
         <v>11</v>
@@ -1366,7 +1366,7 @@
         <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O7" t="n">
         <v>1.53</v>
@@ -1384,10 +1384,10 @@
         <v>5.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
         <v>1.1</v>
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1477,73 +1477,73 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G8" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.67</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X8" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AA8" t="n">
         <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
@@ -1561,7 +1561,7 @@
         <v>24</v>
       </c>
       <c r="AH8" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
         <v>360</v>
@@ -1573,7 +1573,7 @@
         <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>220</v>
+        <v>460</v>
       </c>
       <c r="AM8" t="n">
         <v>500</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G9" t="n">
         <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K9" t="n">
         <v>6.4</v>
@@ -1642,31 +1642,31 @@
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
         <v>1.63</v>
       </c>
       <c r="S9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
         <v>3.3</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
         <v>36</v>
@@ -1702,10 +1702,10 @@
         <v>400</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
         <v>29</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G10" t="n">
         <v>5.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="I10" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J10" t="n">
         <v>4.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
         <v>1.26</v>
@@ -1771,67 +1771,67 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R10" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="V10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
         <v>500</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA10" t="n">
         <v>40</v>
       </c>
       <c r="AB10" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG10" t="n">
         <v>500</v>
       </c>
-      <c r="AG10" t="n">
-        <v>42</v>
-      </c>
       <c r="AH10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
         <v>80</v>
@@ -1840,7 +1840,7 @@
         <v>700</v>
       </c>
       <c r="AK10" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
         <v>500</v>
@@ -1852,7 +1852,7 @@
         <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="11">
@@ -1894,7 +1894,7 @@
         <v>2.96</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
@@ -1927,7 +1927,7 @@
         <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
         <v>1.51</v>
@@ -2017,76 +2017,76 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H12" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="I12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="O12" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W12" t="n">
         <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
         <v>11.5</v>
@@ -2095,13 +2095,13 @@
         <v>44</v>
       </c>
       <c r="AF12" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="n">
         <v>500</v>
@@ -2119,10 +2119,10 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
@@ -2191,31 +2191,31 @@
         <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2224,40 +2224,40 @@
         <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AK13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
         <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2305,7 +2305,7 @@
         <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
         <v>38</v>
@@ -2365,7 +2365,7 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
@@ -2380,7 +2380,7 @@
         <v>70</v>
       </c>
       <c r="AK14" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="n">
         <v>500</v>
@@ -2389,7 +2389,7 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.31</v>
@@ -2452,16 +2452,16 @@
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S15" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T15" t="n">
         <v>1.63</v>
@@ -2470,10 +2470,10 @@
         <v>2.56</v>
       </c>
       <c r="V15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
@@ -2485,10 +2485,10 @@
         <v>36</v>
       </c>
       <c r="AA15" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -2515,16 +2515,16 @@
         <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO15" t="n">
         <v>40</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I16" t="n">
         <v>2.58</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.66</v>
       </c>
       <c r="J16" t="n">
         <v>3.4</v>
@@ -2575,46 +2575,46 @@
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V16" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W16" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
         <v>17</v>
@@ -2623,46 +2623,46 @@
         <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
         <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -2698,10 +2698,10 @@
         <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J17" t="n">
         <v>4.3</v>
@@ -2710,31 +2710,31 @@
         <v>4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2746,7 +2746,7 @@
         <v>2.66</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
         <v>25</v>
@@ -2758,7 +2758,7 @@
         <v>700</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC17" t="n">
         <v>11</v>
@@ -2767,10 +2767,10 @@
         <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
@@ -2785,16 +2785,16 @@
         <v>14.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO17" t="n">
         <v>500</v>
@@ -2833,7 +2833,7 @@
         <v>2.34</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
         <v>3.5</v>
@@ -2869,7 +2869,7 @@
         <v>2.94</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U18" t="n">
         <v>2.34</v>
@@ -2881,7 +2881,7 @@
         <v>1.74</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
         <v>970</v>
@@ -2893,10 +2893,10 @@
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="n">
         <v>970</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>2.06</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
         <v>4.5</v>
@@ -2977,7 +2977,7 @@
         <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
         <v>1.39</v>
@@ -2986,7 +2986,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.28</v>
@@ -3007,7 +3007,7 @@
         <v>1.7</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
         <v>1.28</v>
@@ -3022,10 +3022,10 @@
         <v>17.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB19" t="n">
         <v>11</v>
@@ -3037,7 +3037,7 @@
         <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF19" t="n">
         <v>13.5</v>
@@ -3046,7 +3046,7 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
         <v>55</v>
@@ -3058,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
         <v>90</v>
@@ -3067,7 +3067,7 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -3097,34 +3097,34 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.25</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.3</v>
-      </c>
       <c r="H20" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I20" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
         <v>3.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
         <v>1.82</v>
@@ -3145,13 +3145,13 @@
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W20" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
         <v>9.6</v>
@@ -3160,7 +3160,7 @@
         <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB20" t="n">
         <v>11.5</v>
@@ -3172,16 +3172,16 @@
         <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
         <v>42</v>
@@ -3196,7 +3196,7 @@
         <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
         <v>40</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -3259,28 +3259,28 @@
         <v>3.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
         <v>1.83</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
         <v>1.31</v>
       </c>
       <c r="S21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T21" t="n">
         <v>1.86</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="W21" t="n">
         <v>1.39</v>
@@ -3289,19 +3289,19 @@
         <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
         <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="n">
         <v>25</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
         <v>12.5</v>
@@ -3328,7 +3328,7 @@
         <v>500</v>
       </c>
       <c r="AL21" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="G22" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="W22" t="n">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="X22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y22" t="n">
         <v>12</v>
       </c>
-      <c r="Y22" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Z22" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AB22" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
         <v>700</v>
       </c>
-      <c r="AF22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H23" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="I23" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="J23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.7</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
         <v>3.5</v>
@@ -3547,43 +3547,43 @@
         <v>1.97</v>
       </c>
       <c r="U23" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V23" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="W23" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X23" t="n">
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z23" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
@@ -3595,19 +3595,19 @@
         <v>130</v>
       </c>
       <c r="AK23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL23" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AO23" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="24">
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -3661,7 +3661,7 @@
         <v>1.15</v>
       </c>
       <c r="N24" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O24" t="n">
         <v>1.63</v>
@@ -3670,7 +3670,7 @@
         <v>1.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
         <v>1.16</v>
@@ -3679,7 +3679,7 @@
         <v>6.6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="U24" t="n">
         <v>1.64</v>
@@ -3688,7 +3688,7 @@
         <v>1.21</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X24" t="n">
         <v>7.6</v>
@@ -3703,7 +3703,7 @@
         <v>700</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC24" t="n">
         <v>7.8</v>
@@ -3772,70 +3772,70 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
         <v>3.05</v>
       </c>
-      <c r="G25" t="n">
-        <v>3.15</v>
-      </c>
       <c r="H25" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>3.05</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K25" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="L25" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="M25" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N25" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="O25" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="P25" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S25" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U25" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
         <v>1.48</v>
       </c>
       <c r="W25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X25" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z25" t="n">
         <v>18</v>
       </c>
       <c r="AA25" t="n">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="n">
         <v>8</v>
@@ -3844,37 +3844,37 @@
         <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE25" t="n">
         <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
         <v>110</v>
       </c>
       <c r="AJ25" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AK25" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AL25" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AM25" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3916,13 +3916,13 @@
         <v>5.1</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
         <v>1.65</v>
@@ -3940,7 +3940,7 @@
         <v>1.48</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="R26" t="n">
         <v>1.16</v>
@@ -3949,7 +3949,7 @@
         <v>6.6</v>
       </c>
       <c r="T26" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="n">
         <v>1.65</v>
@@ -3997,7 +3997,7 @@
         <v>170</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK26" t="n">
         <v>30</v>
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="G27" t="n">
-        <v>5.8</v>
+        <v>3.45</v>
       </c>
       <c r="H27" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="O27" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="U27" t="n">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="V27" t="n">
-        <v>1.9</v>
+        <v>1.56</v>
       </c>
       <c r="W27" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4111,7 +4111,7 @@
         <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
         <v>3.4</v>
@@ -676,52 +676,52 @@
         <v>2.34</v>
       </c>
       <c r="I2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.67</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.66</v>
       </c>
       <c r="W2" t="n">
         <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
         <v>18</v>
@@ -733,7 +733,7 @@
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
         <v>13</v>
@@ -760,7 +760,7 @@
         <v>240</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G3" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
         <v>6</v>
       </c>
       <c r="J3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.35</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M3" t="n">
         <v>1.12</v>
       </c>
       <c r="N3" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q3" t="n">
         <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="V3" t="n">
         <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="X3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>42</v>
@@ -868,7 +868,7 @@
         <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
@@ -883,31 +883,31 @@
         <v>9.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="AJ3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK3" t="n">
         <v>26</v>
       </c>
-      <c r="AK3" t="n">
-        <v>25</v>
-      </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN3" t="n">
-        <v>46</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
@@ -937,70 +937,70 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G4" t="n">
         <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="I4" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
         <v>1.81</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
         <v>24</v>
       </c>
       <c r="AA4" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>17.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>65</v>
@@ -1021,7 +1021,7 @@
         <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1072,73 +1072,73 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="H5" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
@@ -1147,13 +1147,13 @@
         <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>18</v>
@@ -1162,10 +1162,10 @@
         <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
         <v>250</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -1219,10 +1219,10 @@
         <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
         <v>1.65</v>
@@ -1237,10 +1237,10 @@
         <v>1.63</v>
       </c>
       <c r="P6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="R6" t="n">
         <v>1.15</v>
@@ -1249,10 +1249,10 @@
         <v>6.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="V6" t="n">
         <v>1.22</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
@@ -1366,16 +1366,16 @@
         <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P7" t="n">
         <v>1.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
@@ -1384,7 +1384,7 @@
         <v>5.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="U7" t="n">
         <v>1.53</v>
@@ -1393,7 +1393,7 @@
         <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X7" t="n">
         <v>9</v>
@@ -1402,7 +1402,7 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1426,7 +1426,7 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1480,22 +1480,22 @@
         <v>2.36</v>
       </c>
       <c r="G8" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="M8" t="n">
         <v>1.17</v>
@@ -1507,16 +1507,16 @@
         <v>1.71</v>
       </c>
       <c r="P8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R8" t="n">
         <v>1.14</v>
       </c>
       <c r="S8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="T8" t="n">
         <v>2.4</v>
@@ -1528,49 +1528,49 @@
         <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
         <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="n">
         <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AI8" t="n">
         <v>360</v>
       </c>
       <c r="AJ8" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AK8" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="n">
         <v>460</v>
@@ -1579,10 +1579,10 @@
         <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I9" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="K9" t="n">
         <v>6.4</v>
@@ -1654,25 +1654,25 @@
         <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,22 +1681,22 @@
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
         <v>32</v>
       </c>
       <c r="AE9" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>400</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="I10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>1.26</v>
@@ -1780,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R10" t="n">
         <v>1.8</v>
@@ -1789,34 +1789,34 @@
         <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V10" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA10" t="n">
         <v>500</v>
       </c>
-      <c r="Y10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>40</v>
-      </c>
       <c r="AB10" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
@@ -1825,34 +1825,34 @@
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>700</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AL10" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1888,13 +1888,13 @@
         <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
@@ -1903,7 +1903,7 @@
         <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
         <v>3.9</v>
@@ -1912,7 +1912,7 @@
         <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q11" t="n">
         <v>1.96</v>
@@ -1924,13 +1924,13 @@
         <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W11" t="n">
         <v>1.62</v>
@@ -1939,19 +1939,19 @@
         <v>14.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB11" t="n">
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>13.5</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="G12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I12" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
@@ -2047,7 +2047,7 @@
         <v>1.52</v>
       </c>
       <c r="P12" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q12" t="n">
         <v>2.6</v>
@@ -2059,13 +2059,13 @@
         <v>5.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
         <v>1.77</v>
       </c>
       <c r="V12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
         <v>1.22</v>
@@ -2077,7 +2077,7 @@
         <v>6.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
         <v>23</v>
@@ -2122,7 +2122,7 @@
         <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
@@ -2179,28 +2179,28 @@
         <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2221,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
@@ -2239,7 +2239,7 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
         <v>90</v>
@@ -2257,7 +2257,7 @@
         <v>70</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2314,28 +2314,28 @@
         <v>3.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
         <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
         <v>2.02</v>
@@ -2347,7 +2347,7 @@
         <v>36</v>
       </c>
       <c r="Z14" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2356,7 +2356,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
         <v>38</v>
@@ -2365,7 +2365,7 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
@@ -2374,13 +2374,13 @@
         <v>40</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ14" t="n">
         <v>70</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL14" t="n">
         <v>500</v>
@@ -2389,10 +2389,10 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="G15" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H15" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2446,43 +2446,43 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T15" t="n">
         <v>1.63</v>
       </c>
       <c r="U15" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="V15" t="n">
         <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
         <v>500</v>
@@ -2494,13 +2494,13 @@
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
@@ -2512,10 +2512,10 @@
         <v>48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -2524,10 +2524,10 @@
         <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -2566,16 +2566,16 @@
         <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2590,7 +2590,7 @@
         <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
         <v>1.43</v>
@@ -2599,13 +2599,13 @@
         <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W16" t="n">
         <v>1.45</v>
@@ -2620,10 +2620,10 @@
         <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
         <v>8.199999999999999</v>
@@ -2641,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
         <v>36</v>
@@ -2650,7 +2650,7 @@
         <v>50</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
@@ -2659,10 +2659,10 @@
         <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H17" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I17" t="n">
         <v>7.4</v>
@@ -2725,16 +2725,16 @@
         <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2743,10 +2743,10 @@
         <v>1.16</v>
       </c>
       <c r="W17" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
         <v>25</v>
@@ -2758,7 +2758,7 @@
         <v>700</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC17" t="n">
         <v>11</v>
@@ -2770,10 +2770,10 @@
         <v>700</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
@@ -2794,7 +2794,7 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
         <v>500</v>
@@ -2857,7 +2857,7 @@
         <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
         <v>1.76</v>
@@ -2866,10 +2866,10 @@
         <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
         <v>2.34</v>
@@ -2881,7 +2881,7 @@
         <v>1.74</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
         <v>970</v>
@@ -2893,10 +2893,10 @@
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD18" t="n">
         <v>970</v>
@@ -2908,7 +2908,7 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH18" t="n">
         <v>60</v>
@@ -2932,7 +2932,7 @@
         <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G19" t="n">
         <v>2.06</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
         <v>4.5</v>
@@ -2992,10 +2992,10 @@
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
         <v>1.42</v>
@@ -3004,19 +3004,19 @@
         <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
         <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
         <v>17.5</v>
@@ -3025,7 +3025,7 @@
         <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
         <v>11</v>
@@ -3034,10 +3034,10 @@
         <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF19" t="n">
         <v>13.5</v>
@@ -3058,10 +3058,10 @@
         <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN19" t="n">
         <v>13</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
         <v>2.52</v>
@@ -3109,58 +3109,58 @@
         <v>2.54</v>
       </c>
       <c r="J20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.35</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S20" t="n">
         <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W20" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
         <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
         <v>11.5</v>
@@ -3175,13 +3175,13 @@
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
         <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
         <v>42</v>
@@ -3199,7 +3199,7 @@
         <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I21" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -3256,7 +3256,7 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -3274,13 +3274,13 @@
         <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="W21" t="n">
         <v>1.39</v>
@@ -3289,13 +3289,13 @@
         <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
         <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AB21" t="n">
         <v>25</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO21" t="n">
         <v>55</v>
@@ -3370,10 +3370,10 @@
         <v>2.22</v>
       </c>
       <c r="G22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
         <v>3.9</v>
@@ -3415,10 +3415,10 @@
         <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X22" t="n">
         <v>11.5</v>
@@ -3427,7 +3427,7 @@
         <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
         <v>310</v>
@@ -3439,13 +3439,13 @@
         <v>7.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
         <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
@@ -3472,7 +3472,7 @@
         <v>26</v>
       </c>
       <c r="AO22" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="I23" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="J23" t="n">
         <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
         <v>1.47</v>
@@ -3529,31 +3529,31 @@
         <v>3.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q23" t="n">
         <v>2.16</v>
       </c>
       <c r="R23" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U23" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X23" t="n">
         <v>12</v>
@@ -3562,10 +3562,10 @@
         <v>8</v>
       </c>
       <c r="Z23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
@@ -3574,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -3592,13 +3592,13 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="n">
         <v>65</v>
       </c>
       <c r="AL23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="G24" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -3652,7 +3652,7 @@
         <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.65</v>
@@ -3661,7 +3661,7 @@
         <v>1.15</v>
       </c>
       <c r="N24" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.63</v>
@@ -3688,10 +3688,10 @@
         <v>1.21</v>
       </c>
       <c r="W24" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
@@ -3706,7 +3706,7 @@
         <v>6</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>28</v>
@@ -3727,7 +3727,7 @@
         <v>700</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
         <v>50</v>
@@ -3739,7 +3739,7 @@
         <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
         <v>500</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="G25" t="n">
         <v>3.05</v>
@@ -3781,13 +3781,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
         <v>2.9</v>
       </c>
       <c r="K25" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
         <v>1.7</v>
@@ -3802,7 +3802,7 @@
         <v>1.69</v>
       </c>
       <c r="P25" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q25" t="n">
         <v>3.2</v>
@@ -3814,13 +3814,13 @@
         <v>7.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="U25" t="n">
         <v>1.67</v>
       </c>
       <c r="V25" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W25" t="n">
         <v>1.48</v>
@@ -3850,7 +3850,7 @@
         <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
         <v>15.5</v>
@@ -3862,10 +3862,10 @@
         <v>110</v>
       </c>
       <c r="AJ25" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AK25" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="n">
         <v>95</v>
@@ -3874,7 +3874,7 @@
         <v>260</v>
       </c>
       <c r="AN25" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3949,7 +3949,7 @@
         <v>6.6</v>
       </c>
       <c r="T26" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="U26" t="n">
         <v>1.65</v>
@@ -4042,34 +4042,34 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="G27" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="H27" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P27" t="n">
         <v>1.58</v>
@@ -4081,22 +4081,22 @@
         <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T27" t="n">
         <v>1.98</v>
       </c>
       <c r="U27" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V27" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="W27" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y27" t="n">
         <v>1000</v>
@@ -4108,10 +4108,10 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -667,34 +667,34 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.45</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
         <v>2.06</v>
@@ -703,76 +703,76 @@
         <v>1.91</v>
       </c>
       <c r="R2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.37</v>
       </c>
-      <c r="S2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
         <v>29</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>240</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -808,34 +808,34 @@
         <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M3" t="n">
         <v>1.12</v>
       </c>
       <c r="N3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.72</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.7</v>
       </c>
       <c r="R3" t="n">
         <v>1.19</v>
@@ -844,31 +844,31 @@
         <v>5.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U3" t="n">
         <v>1.69</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
         <v>2.08</v>
       </c>
       <c r="X3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
         <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>990</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
@@ -886,13 +886,13 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>26</v>
@@ -901,13 +901,13 @@
         <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="AO3" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
         <v>4.4</v>
@@ -961,31 +961,31 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W4" t="n">
         <v>1.21</v>
@@ -994,7 +994,7 @@
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
         <v>24</v>
@@ -1009,7 +1009,7 @@
         <v>17.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE4" t="n">
         <v>65</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G5" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.06</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
         <v>130</v>
       </c>
-      <c r="AB5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>160</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="AK5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL5" t="n">
         <v>250</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1207,100 +1207,100 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M6" t="n">
         <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="O6" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S6" t="n">
         <v>6.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>1.66</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="X6" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG6" t="n">
         <v>12</v>
       </c>
-      <c r="Z6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AH6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>23</v>
       </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>28</v>
-      </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>75</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="H7" t="n">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="O7" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="P7" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>2.8</v>
+        <v>2.34</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="G8" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="H8" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L8" t="n">
         <v>1.71</v>
@@ -1504,13 +1504,13 @@
         <v>2.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="P8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R8" t="n">
         <v>1.14</v>
@@ -1519,31 +1519,31 @@
         <v>7.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="U8" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
         <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="X8" t="n">
         <v>7.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
         <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
@@ -1555,10 +1555,10 @@
         <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>65</v>
@@ -1579,10 +1579,10 @@
         <v>500</v>
       </c>
       <c r="AN8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AO8" t="n">
         <v>600</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="J9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q9" t="n">
         <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
         <v>1.81</v>
@@ -1663,16 +1663,16 @@
         <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,25 +1681,25 @@
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>32</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>12.5</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,76 +1747,76 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.9</v>
       </c>
-      <c r="G10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="T10" t="n">
         <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="V10" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
@@ -1825,34 +1825,34 @@
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
         <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ10" t="n">
-        <v>700</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
         <v>200</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="AO10" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H11" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
         <v>19.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
         <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -2020,13 +2020,13 @@
         <v>5.1</v>
       </c>
       <c r="G12" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H12" t="n">
         <v>1.93</v>
       </c>
       <c r="I12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2035,13 +2035,13 @@
         <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="O12" t="n">
         <v>1.52</v>
@@ -2053,7 +2053,7 @@
         <v>2.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S12" t="n">
         <v>5.3</v>
@@ -2071,10 +2071,10 @@
         <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
         <v>10.5</v>
@@ -2086,31 +2086,31 @@
         <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH12" t="n">
         <v>44</v>
       </c>
-      <c r="AF12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>46</v>
-      </c>
       <c r="AI12" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="n">
         <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="AL12" t="n">
         <v>700</v>
@@ -2122,7 +2122,7 @@
         <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -2167,13 +2167,13 @@
         <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
         <v>1.52</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
         <v>3.1</v>
@@ -2188,7 +2188,7 @@
         <v>2.36</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
         <v>4.6</v>
@@ -2200,7 +2200,7 @@
         <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2209,7 +2209,7 @@
         <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z13" t="n">
         <v>13</v>
@@ -2221,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
@@ -2239,10 +2239,10 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
         <v>55</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="G14" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.41</v>
@@ -2311,37 +2311,37 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Y14" t="n">
         <v>36</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>38</v>
@@ -2365,7 +2365,7 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
@@ -2374,22 +2374,22 @@
         <v>40</v>
       </c>
       <c r="AI14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
         <v>70</v>
       </c>
       <c r="AK14" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
         <v>600</v>
@@ -2425,82 +2425,82 @@
         <v>1.79</v>
       </c>
       <c r="G15" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="T15" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
         <v>500</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
@@ -2509,7 +2509,7 @@
         <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
         <v>20</v>
@@ -2518,16 +2518,16 @@
         <v>18</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
         <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -2560,22 +2560,22 @@
         <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I16" t="n">
         <v>2.56</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2599,40 +2599,40 @@
         <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V16" t="n">
         <v>1.64</v>
       </c>
       <c r="W16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
         <v>16</v>
       </c>
       <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB16" t="n">
         <v>21</v>
       </c>
-      <c r="Z16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14</v>
-      </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
         <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF16" t="n">
         <v>22</v>
@@ -2647,22 +2647,22 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.56</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.58</v>
       </c>
       <c r="H17" t="n">
         <v>6.6</v>
       </c>
       <c r="I17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.38</v>
@@ -2716,19 +2716,19 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
         <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
         <v>3.15</v>
@@ -2737,22 +2737,22 @@
         <v>1.87</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W17" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="X17" t="n">
         <v>19.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>420</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="n">
         <v>700</v>
@@ -2764,34 +2764,34 @@
         <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>520</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="n">
         <v>14.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="AN17" t="n">
         <v>8</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G18" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.6</v>
       </c>
       <c r="K18" t="n">
         <v>3.85</v>
@@ -2848,7 +2848,7 @@
         <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
         <v>4.5</v>
@@ -2866,25 +2866,25 @@
         <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
         <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Z18" t="n">
         <v>980</v>
@@ -2896,10 +2896,10 @@
         <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
@@ -2911,7 +2911,7 @@
         <v>40</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
         <v>500</v>
@@ -2926,13 +2926,13 @@
         <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
@@ -2968,10 +2968,10 @@
         <v>2.06</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J19" t="n">
         <v>3.55</v>
@@ -2986,19 +2986,19 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
         <v>1.85</v>
       </c>
       <c r="R19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S19" t="n">
         <v>3.15</v>
@@ -3046,7 +3046,7 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>55</v>
@@ -3058,10 +3058,10 @@
         <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
         <v>13</v>
@@ -3097,94 +3097,94 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.3</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
         <v>55</v>
@@ -3199,10 +3199,10 @@
         <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G21" t="n">
         <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="I21" t="n">
         <v>2.52</v>
@@ -3247,37 +3247,37 @@
         <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R21" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S21" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T21" t="n">
         <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
         <v>1.66</v>
@@ -3286,25 +3286,25 @@
         <v>1.39</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
         <v>500</v>
       </c>
       <c r="AB21" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>500</v>
@@ -3322,19 +3322,19 @@
         <v>500</v>
       </c>
       <c r="AJ21" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="AK21" t="n">
         <v>500</v>
       </c>
       <c r="AL21" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
         <v>55</v>
@@ -3367,40 +3367,40 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R22" t="n">
         <v>1.25</v>
@@ -3412,43 +3412,43 @@
         <v>1.9</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W22" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>12</v>
-      </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
         <v>310</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
@@ -3457,22 +3457,22 @@
         <v>700</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK22" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL22" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO22" t="n">
-        <v>65</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23">
@@ -3505,10 +3505,10 @@
         <v>4.6</v>
       </c>
       <c r="G23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H23" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I23" t="n">
         <v>1.96</v>
@@ -3520,46 +3520,46 @@
         <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T23" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V23" t="n">
         <v>2.04</v>
       </c>
       <c r="W23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="Z23" t="n">
         <v>11</v>
@@ -3568,46 +3568,46 @@
         <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AK23" t="n">
         <v>65</v>
       </c>
       <c r="AL23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO23" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="24">
@@ -3643,19 +3643,19 @@
         <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
         <v>3.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M24" t="n">
         <v>1.15</v>
@@ -3664,7 +3664,7 @@
         <v>2.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P24" t="n">
         <v>1.48</v>
@@ -3691,13 +3691,13 @@
         <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AA24" t="n">
         <v>700</v>
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="n">
         <v>700</v>
@@ -3721,7 +3721,7 @@
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
         <v>700</v>
@@ -3730,7 +3730,7 @@
         <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
         <v>190</v>
@@ -3739,10 +3739,10 @@
         <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
@@ -3772,28 +3772,28 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H25" t="n">
         <v>2.94</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>3.05</v>
       </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J25" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L25" t="n">
         <v>1.7</v>
       </c>
       <c r="M25" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N25" t="n">
         <v>2.38</v>
@@ -3802,7 +3802,7 @@
         <v>1.69</v>
       </c>
       <c r="P25" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q25" t="n">
         <v>3.2</v>
@@ -3814,19 +3814,19 @@
         <v>7.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V25" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W25" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y25" t="n">
         <v>8</v>
@@ -3835,13 +3835,13 @@
         <v>18</v>
       </c>
       <c r="AA25" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AB25" t="n">
         <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD25" t="n">
         <v>15.5</v>
@@ -3850,28 +3850,28 @@
         <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG25" t="n">
         <v>15.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
         <v>110</v>
       </c>
       <c r="AJ25" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="AK25" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL25" t="n">
         <v>95</v>
       </c>
       <c r="AM25" t="n">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="AN25" t="n">
         <v>75</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G26" t="n">
         <v>2.02</v>
@@ -3949,10 +3949,10 @@
         <v>6.6</v>
       </c>
       <c r="T26" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V26" t="n">
         <v>1.22</v>
@@ -3964,28 +3964,28 @@
         <v>7.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
         <v>75</v>
       </c>
       <c r="AA26" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB26" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC26" t="n">
         <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
@@ -3997,22 +3997,22 @@
         <v>170</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AN26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO26" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
@@ -4042,31 +4042,31 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I27" t="n">
         <v>2.8</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>3.1</v>
       </c>
-      <c r="J27" t="n">
-        <v>3</v>
-      </c>
       <c r="K27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.55</v>
       </c>
       <c r="M27" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O27" t="n">
         <v>1.51</v>
@@ -4078,28 +4078,28 @@
         <v>2.52</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.47</v>
       </c>
-      <c r="W27" t="n">
-        <v>1.51</v>
-      </c>
       <c r="X27" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4108,7 +4108,7 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.2</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.91</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>1.09</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.05</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>65</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>95</v>
+        <v>550</v>
       </c>
       <c r="AJ2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="AM2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.35</v>
@@ -823,91 +823,91 @@
         <v>1.59</v>
       </c>
       <c r="M3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
         <v>2.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="R3" t="n">
         <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="U3" t="n">
         <v>1.69</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>990</v>
+        <v>500</v>
       </c>
       <c r="AA3" t="n">
-        <v>190</v>
+        <v>700</v>
       </c>
       <c r="AB3" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="n">
         <v>700</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
         <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="AN3" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -940,13 +940,13 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
@@ -955,7 +955,7 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -970,7 +970,7 @@
         <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
         <v>1.43</v>
@@ -979,16 +979,16 @@
         <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>2.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -997,10 +997,10 @@
         <v>20</v>
       </c>
       <c r="Z4" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="I5" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="J5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.6</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.7</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.25</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
         <v>1.56</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="AK5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,34 +1207,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G6" t="n">
         <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="M6" t="n">
         <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P6" t="n">
         <v>1.47</v>
@@ -1249,7 +1249,7 @@
         <v>6.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
         <v>1.66</v>
@@ -1261,55 +1261,55 @@
         <v>2.04</v>
       </c>
       <c r="X6" t="n">
-        <v>8.199999999999999</v>
+        <v>500</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.9</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="G7" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="H7" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I7" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="O7" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
         <v>5.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2.54</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="X7" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.5</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1483,7 +1483,7 @@
         <v>2.52</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
@@ -1492,13 +1492,13 @@
         <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N8" t="n">
         <v>2.3</v>
@@ -1507,10 +1507,10 @@
         <v>1.72</v>
       </c>
       <c r="P8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R8" t="n">
         <v>1.14</v>
@@ -1519,10 +1519,10 @@
         <v>7.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.36</v>
+        <v>1.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="V8" t="n">
         <v>1.31</v>
@@ -1531,58 +1531,58 @@
         <v>1.66</v>
       </c>
       <c r="X8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
         <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>460</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
         <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="G9" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.28</v>
@@ -1636,13 +1636,13 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
         <v>1.56</v>
@@ -1651,73 +1651,73 @@
         <v>1.64</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="X9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG9" t="n">
         <v>10</v>
       </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
         <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1777,82 +1777,82 @@
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="U10" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="W10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X10" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
         <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.5</v>
+        <v>500</v>
       </c>
       <c r="AA10" t="n">
         <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH10" t="n">
         <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
         <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1885,22 +1885,22 @@
         <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="I11" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1912,7 +1912,7 @@
         <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
         <v>1.87</v>
@@ -1927,28 +1927,28 @@
         <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="W11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>500</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB11" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>12</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
@@ -1957,13 +1957,13 @@
         <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -1972,7 +1972,7 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="n">
         <v>27</v>
@@ -2026,7 +2026,7 @@
         <v>1.93</v>
       </c>
       <c r="I12" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2041,88 +2041,88 @@
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="O12" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P12" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>1.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AA12" t="n">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AF12" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
         <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="AL12" t="n">
         <v>700</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN12" t="n">
         <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2155,13 +2155,13 @@
         <v>3.85</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.26</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2170,94 +2170,94 @@
         <v>3.35</v>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M13" t="n">
         <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="O13" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF13" t="n">
         <v>28</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>270</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>190</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
         <v>26</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -2287,31 +2287,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="G14" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2320,79 +2320,79 @@
         <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
         <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.07</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="X14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AD14" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q15" t="n">
         <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AB15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF15" t="n">
         <v>12</v>
       </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>13</v>
-      </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -2563,106 +2563,106 @@
         <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
         <v>1.69</v>
       </c>
       <c r="U16" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W16" t="n">
         <v>1.44</v>
       </c>
       <c r="X16" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
         <v>16.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="n">
         <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
         <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="n">
         <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -2695,10 +2695,10 @@
         <v>1.54</v>
       </c>
       <c r="G17" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="H17" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I17" t="n">
         <v>7.6</v>
@@ -2722,22 +2722,22 @@
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R17" t="n">
         <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
         <v>1.15</v>
@@ -2746,55 +2746,55 @@
         <v>2.7</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AA17" t="n">
         <v>700</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>700</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14.5</v>
+        <v>900</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AM17" t="n">
         <v>700</v>
       </c>
       <c r="AN17" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
         <v>500</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G18" t="n">
         <v>2.38</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2848,7 +2848,7 @@
         <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>4.5</v>
@@ -2866,13 +2866,13 @@
         <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T18" t="n">
         <v>1.7</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="V18" t="n">
         <v>1.4</v>
@@ -2881,10 +2881,10 @@
         <v>1.73</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>980</v>
@@ -2893,13 +2893,13 @@
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
@@ -2908,10 +2908,10 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="AI18" t="n">
         <v>500</v>
@@ -2920,7 +2920,7 @@
         <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL18" t="n">
         <v>980</v>
@@ -2929,7 +2929,7 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AO18" t="n">
         <v>980</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>2.06</v>
@@ -2980,7 +2980,7 @@
         <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2992,34 +2992,34 @@
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q19" t="n">
         <v>1.85</v>
       </c>
       <c r="R19" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
         <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
         <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X19" t="n">
         <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="Z19" t="n">
         <v>32</v>
@@ -3028,16 +3028,16 @@
         <v>90</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="n">
         <v>13.5</v>
@@ -3046,25 +3046,25 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AJ19" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
         <v>46</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.15</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H20" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="J20" t="n">
         <v>3.25</v>
@@ -3121,43 +3121,43 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W20" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
         <v>38</v>
@@ -3172,7 +3172,7 @@
         <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
         <v>19.5</v>
@@ -3181,13 +3181,13 @@
         <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK20" t="n">
         <v>40</v>
@@ -3199,7 +3199,7 @@
         <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="G21" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="I21" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -3259,19 +3259,19 @@
         <v>3.55</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
         <v>1.32</v>
       </c>
       <c r="S21" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T21" t="n">
         <v>1.84</v>
@@ -3280,49 +3280,49 @@
         <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="W21" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="X21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD21" t="n">
         <v>500</v>
       </c>
-      <c r="AB21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12</v>
-      </c>
       <c r="AE21" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
         <v>500</v>
       </c>
       <c r="AJ21" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="AK21" t="n">
         <v>500</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.34</v>
+        <v>2.68</v>
       </c>
       <c r="G22" t="n">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
         <v>1.5</v>
@@ -3394,85 +3394,85 @@
         <v>3.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
         <v>1.9</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>310</v>
+        <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>500</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,97 +3502,97 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="G23" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.93</v>
       </c>
-      <c r="I23" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>1.91</v>
       </c>
-      <c r="U23" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.04</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH23" t="n">
         <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AK23" t="n">
         <v>65</v>
@@ -3601,13 +3601,13 @@
         <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AO23" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -3640,13 +3640,13 @@
         <v>1.98</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J24" t="n">
         <v>3.05</v>
@@ -3667,7 +3667,7 @@
         <v>1.64</v>
       </c>
       <c r="P24" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q24" t="n">
         <v>3</v>
@@ -3682,64 +3682,64 @@
         <v>2.48</v>
       </c>
       <c r="U24" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V24" t="n">
         <v>1.21</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AA24" t="n">
         <v>700</v>
       </c>
       <c r="AB24" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AE24" t="n">
         <v>700</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI24" t="n">
         <v>700</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="n">
-        <v>190</v>
+        <v>460</v>
       </c>
       <c r="AM24" t="n">
         <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>600</v>
       </c>
       <c r="AO24" t="n">
         <v>600</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
         <v>3.15</v>
       </c>
       <c r="H25" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I25" t="n">
         <v>3.05</v>
@@ -3787,10 +3787,10 @@
         <v>2.88</v>
       </c>
       <c r="K25" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="M25" t="n">
         <v>1.17</v>
@@ -3808,7 +3808,7 @@
         <v>3.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S25" t="n">
         <v>7.2</v>
@@ -3817,55 +3817,55 @@
         <v>2.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
         <v>1.46</v>
       </c>
       <c r="X25" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="Z25" t="n">
         <v>18</v>
       </c>
       <c r="AA25" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AI25" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="AK25" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="AL25" t="n">
         <v>95</v>
@@ -3874,10 +3874,10 @@
         <v>330</v>
       </c>
       <c r="AN25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26">
@@ -3907,79 +3907,79 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G26" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I26" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.65</v>
       </c>
       <c r="M26" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O26" t="n">
         <v>1.62</v>
       </c>
       <c r="P26" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="R26" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S26" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="T26" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U26" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="V26" t="n">
         <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X26" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
         <v>6.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
@@ -3988,31 +3988,31 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AI26" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AM26" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
         <v>27</v>
       </c>
       <c r="AO26" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G27" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="J27" t="n">
         <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.55</v>
@@ -4066,40 +4066,40 @@
         <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="R27" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="W27" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4108,7 +4108,7 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,90 +653,90 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>2.22</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>2.42</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>2.44</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="N2" t="n">
-        <v>2.78</v>
+        <v>1.51</v>
       </c>
       <c r="O2" t="n">
-        <v>1.52</v>
+        <v>2.92</v>
       </c>
       <c r="P2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S2" t="n">
+        <v>34</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.05</v>
-      </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>3.45</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>20</v>
+        <v>3.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>65</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
         <v>990</v>
@@ -745,31 +745,31 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="AH2" t="n">
         <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL2" t="n">
         <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>550</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>5.3</v>
       </c>
       <c r="G3" t="n">
-        <v>1.93</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
-        <v>5.2</v>
+        <v>1.81</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>1.86</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.16</v>
       </c>
-      <c r="U3" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W3" t="n">
-        <v>2.06</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD3" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>700</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>25</v>
-      </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
-        <v>46</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AO3" t="n">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>12:40:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>2.58</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>1.69</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.76</v>
+        <v>2.94</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>40</v>
       </c>
-      <c r="AA4" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:40:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>1.99</v>
       </c>
       <c r="H5" t="n">
-        <v>2.78</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.86</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>2.46</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>1.49</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>2.36</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>700</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>24</v>
       </c>
-      <c r="AC5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AK5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM5" t="n">
         <v>1000</v>
       </c>
-      <c r="AF5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>580</v>
-      </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -1198,118 +1198,118 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="H6" t="n">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="M6" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="O6" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="P6" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="S6" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>2.64</v>
       </c>
       <c r="U6" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>2.04</v>
+        <v>2.62</v>
       </c>
       <c r="X6" t="n">
-        <v>500</v>
+        <v>9.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>5.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
         <v>40</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>980</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>15.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.59</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
-        <v>1.64</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
-        <v>7.6</v>
+        <v>3.95</v>
       </c>
       <c r="I7" t="n">
-        <v>11.5</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>2.86</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="L7" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="N7" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="O7" t="n">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="P7" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S7" t="n">
-        <v>5.8</v>
+        <v>7.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>2.44</v>
       </c>
       <c r="U7" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>2.52</v>
+        <v>1.65</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>6.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.42</v>
+        <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.52</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
-        <v>3.95</v>
+        <v>8.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.84</v>
+        <v>5.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.18</v>
       </c>
-      <c r="N8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.72</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.3</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.14</v>
+        <v>1.63</v>
       </c>
       <c r="S8" t="n">
-        <v>7.6</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
-        <v>1.06</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>1.63</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.66</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
-        <v>7.6</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>44</v>
+        <v>13.5</v>
       </c>
       <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
         <v>110</v>
       </c>
-      <c r="AM8" t="n">
-        <v>500</v>
-      </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>150</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.43</v>
+        <v>5.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>1.62</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="S9" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.59</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>2.56</v>
       </c>
       <c r="W9" t="n">
-        <v>3.05</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
-        <v>85</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM9" t="n">
         <v>65</v>
       </c>
-      <c r="AE9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>110</v>
-      </c>
       <c r="AN9" t="n">
-        <v>8.6</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>2.56</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>2.58</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
-        <v>1.74</v>
+        <v>2.98</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.8</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.51</v>
       </c>
-      <c r="U10" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.34</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="AB10" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AK10" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2.64</v>
+        <v>5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.74</v>
+        <v>1.96</v>
       </c>
       <c r="I11" t="n">
-        <v>2.78</v>
+        <v>1.99</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>2.68</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>2.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>5.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>1.69</v>
       </c>
       <c r="V11" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AM11" t="n">
         <v>500</v>
       </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>80</v>
-      </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.1</v>
+        <v>3.85</v>
       </c>
       <c r="G12" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="I12" t="n">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.3</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="R12" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.06</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="Y12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>29</v>
       </c>
-      <c r="Z12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>500</v>
-      </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AK12" t="n">
-        <v>700</v>
+        <v>60</v>
       </c>
       <c r="AL12" t="n">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.85</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>2.04</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.26</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S13" t="n">
         <v>3.35</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.9</v>
-      </c>
       <c r="T13" t="n">
-        <v>1.06</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
-        <v>1.05</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>1.79</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
       <c r="X13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB13" t="n">
         <v>9.4</v>
       </c>
-      <c r="Y13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF13" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>28</v>
-      </c>
       <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>24</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
         <v>36</v>
       </c>
-      <c r="AI13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>270</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>190</v>
-      </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J14" t="n">
         <v>4.3</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>5.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.91</v>
+        <v>1.66</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="T14" t="n">
-        <v>1.07</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>1.05</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>1.92</v>
+        <v>2.32</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>18</v>
       </c>
-      <c r="AD14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>900</v>
-      </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>60</v>
+        <v>7.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.74</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.65</v>
-      </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="W15" t="n">
-        <v>2.28</v>
+        <v>1.44</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>44</v>
+        <v>16.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AB15" t="n">
         <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19.5</v>
+        <v>55</v>
       </c>
       <c r="AK15" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.199999999999999</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>1.48</v>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>1.51</v>
       </c>
       <c r="H16" t="n">
-        <v>2.5</v>
+        <v>7.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.58</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>1.44</v>
+        <v>2.94</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Z16" t="n">
-        <v>16.5</v>
+        <v>100</v>
       </c>
       <c r="AA16" t="n">
-        <v>40</v>
+        <v>700</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>9.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="AF16" t="n">
-        <v>22</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="AJ16" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -2683,37 +2683,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.54</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>1.59</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>7.6</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>4.3</v>
@@ -2728,76 +2728,76 @@
         <v>1.81</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>2.3</v>
       </c>
       <c r="V17" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>2.7</v>
+        <v>1.76</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AA17" t="n">
-        <v>700</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>700</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>700</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>700</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
         <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.05</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="X18" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>900</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>500</v>
+        <v>14.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
-        <v>2.06</v>
+        <v>3.15</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>2.66</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>2.68</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="W19" t="n">
-        <v>1.94</v>
+        <v>1.46</v>
       </c>
       <c r="X19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z19" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y19" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>32</v>
-      </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD19" t="n">
         <v>12</v>
       </c>
-      <c r="AD19" t="n">
-        <v>27</v>
-      </c>
       <c r="AE19" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AJ19" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="n">
         <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AO19" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G20" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="I20" t="n">
-        <v>2.72</v>
+        <v>2.22</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
         <v>1.87</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.58</v>
+        <v>1.82</v>
       </c>
       <c r="W20" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="X20" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD20" t="n">
         <v>11</v>
       </c>
-      <c r="AC20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>12</v>
-      </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="n">
         <v>48</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>40</v>
-      </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
         <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="I21" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="J21" t="n">
         <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R21" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V21" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="W21" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO21" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.68</v>
+        <v>1.98</v>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>2.82</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q22" t="n">
         <v>3.05</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.34</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="U22" t="n">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="V22" t="n">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>700</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM22" t="n">
         <v>500</v>
       </c>
-      <c r="AD22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="G23" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="H23" t="n">
-        <v>2.06</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>2.86</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="P23" t="n">
-        <v>1.79</v>
+        <v>1.43</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="S23" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>2.34</v>
       </c>
       <c r="U23" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="V23" t="n">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="W23" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y23" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z23" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>25</v>
+        <v>430</v>
       </c>
       <c r="AB23" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>26</v>
+        <v>470</v>
       </c>
       <c r="AF23" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AK23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN23" t="n">
         <v>75</v>
       </c>
-      <c r="AM23" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>500</v>
-      </c>
       <c r="AO23" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -3623,24 +3623,24 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="H24" t="n">
         <v>5.5</v>
@@ -3649,106 +3649,106 @@
         <v>5.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="M24" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N24" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="O24" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P24" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S24" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="T24" t="n">
         <v>2.48</v>
       </c>
       <c r="U24" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="V24" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="X24" t="n">
         <v>8</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AA24" t="n">
-        <v>700</v>
+        <v>210</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
-        <v>700</v>
+        <v>130</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="AJ24" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AL24" t="n">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="AM24" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AN24" t="n">
-        <v>600</v>
+        <v>22</v>
       </c>
       <c r="AO24" t="n">
-        <v>600</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,395 +3758,125 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="G25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.15</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K25" t="n">
-        <v>2.94</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="M25" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="P25" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="S25" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="V25" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="W25" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X25" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>21:15:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Independiente Rivadavia</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Sarmiento de Junin</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X26" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>640</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>21:45:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Boyaca Patriotas</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO27" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:40:01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.22</v>
+        <v>5.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.28</v>
+        <v>6.6</v>
       </c>
       <c r="H2" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.42</v>
+        <v>1.61</v>
       </c>
       <c r="K2" t="n">
-        <v>2.44</v>
+        <v>1.64</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4</v>
+        <v>2.26</v>
       </c>
       <c r="N2" t="n">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="O2" t="n">
-        <v>2.92</v>
+        <v>8.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.4</v>
+        <v>50</v>
       </c>
       <c r="R2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="U2" t="n">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="W2" t="n">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
-        <v>3.45</v>
+        <v>1.85</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>5.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>180</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.3</v>
+        <v>2.92</v>
       </c>
       <c r="G3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.81</v>
-      </c>
       <c r="I3" t="n">
-        <v>1.86</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>2.08</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>1.32</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>3.95</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.34</v>
+        <v>16.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>65</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>6.6</v>
       </c>
       <c r="U3" t="n">
-        <v>1.76</v>
+        <v>1.15</v>
       </c>
       <c r="V3" t="n">
-        <v>2.16</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>48</v>
-      </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>340</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:40:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.58</v>
+        <v>1.15</v>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>1.18</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>46</v>
       </c>
       <c r="I4" t="n">
-        <v>2.94</v>
+        <v>55</v>
       </c>
       <c r="J4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.6</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
         <v>3.75</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>4.1</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>40</v>
+        <v>8.6</v>
       </c>
       <c r="AK4" t="n">
         <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>1.39</v>
       </c>
       <c r="G5" t="n">
-        <v>1.99</v>
+        <v>1.41</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>18.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="P5" t="n">
-        <v>1.49</v>
+        <v>1.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.96</v>
+        <v>5.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="S5" t="n">
-        <v>6.2</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="X5" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>880</v>
       </c>
       <c r="AE5" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
       <c r="I6" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.58</v>
+        <v>21</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="N6" t="n">
-        <v>2.66</v>
+        <v>2.04</v>
       </c>
       <c r="O6" t="n">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="S6" t="n">
-        <v>5.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK6" t="n">
         <v>55</v>
       </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>24</v>
-      </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>15.5</v>
+        <v>50</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>5.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.52</v>
+        <v>5.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.95</v>
+        <v>1.68</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>1.72</v>
       </c>
       <c r="J7" t="n">
-        <v>2.86</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.88</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.7</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.18</v>
       </c>
-      <c r="N7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.76</v>
-      </c>
       <c r="P7" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="S7" t="n">
-        <v>7.8</v>
+        <v>2.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.44</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="X7" t="n">
-        <v>6.4</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
         <v>26</v>
       </c>
-      <c r="AA7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AJ7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM7" t="n">
         <v>85</v>
       </c>
-      <c r="AF7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AN7" t="n">
         <v>44</v>
       </c>
-      <c r="AL7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>55</v>
-      </c>
       <c r="AO7" t="n">
-        <v>500</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.4</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.46</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
-        <v>1.12</v>
+        <v>1.49</v>
       </c>
       <c r="W8" t="n">
-        <v>3.25</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO8" t="n">
         <v>27</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>530</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="I9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.64</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="V9" t="n">
         <v>2.28</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.56</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="X9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH9" t="n">
         <v>32</v>
       </c>
-      <c r="Y9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
       <c r="AI9" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK9" t="n">
         <v>150</v>
       </c>
-      <c r="AK9" t="n">
-        <v>60</v>
-      </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="AM9" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AN9" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>3.95</v>
       </c>
       <c r="G10" t="n">
-        <v>2.58</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>2.28</v>
       </c>
       <c r="I10" t="n">
-        <v>2.98</v>
+        <v>2.32</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="W10" t="n">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="Y10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z10" t="n">
         <v>13</v>
       </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
       <c r="AA10" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD10" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO10" t="n">
         <v>27</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.1</v>
+        <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>2.04</v>
       </c>
       <c r="H11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.96</v>
       </c>
-      <c r="I11" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.22</v>
-      </c>
       <c r="X11" t="n">
-        <v>8.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.6</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB11" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13</v>
-      </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="AF11" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="AN11" t="n">
-        <v>180</v>
+        <v>14.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.85</v>
+        <v>1.68</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>1.72</v>
       </c>
       <c r="H12" t="n">
-        <v>2.24</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.32</v>
+        <v>5.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.64</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.04</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.76</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>1.33</v>
+        <v>2.4</v>
       </c>
       <c r="X12" t="n">
-        <v>9.6</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.8</v>
+        <v>24</v>
       </c>
       <c r="Z12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB12" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF12" t="n">
         <v>12</v>
       </c>
-      <c r="AC12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>26</v>
-      </c>
       <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
         <v>17</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="AK12" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>160</v>
+        <v>7.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.04</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2.44</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>2.52</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
         <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="W13" t="n">
-        <v>1.96</v>
+        <v>1.43</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
         <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.71</v>
+        <v>1.45</v>
       </c>
       <c r="G14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.75</v>
       </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.66</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI14" t="n">
         <v>120</v>
       </c>
-      <c r="AB14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.15</v>
+        <v>2.26</v>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.56</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="V15" t="n">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="W15" t="n">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK15" t="n">
         <v>22</v>
       </c>
-      <c r="AG15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AL15" t="n">
         <v>34</v>
       </c>
-      <c r="AL15" t="n">
-        <v>44</v>
-      </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>8.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.9</v>
       </c>
-      <c r="U16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.94</v>
-      </c>
       <c r="X16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK16" t="n">
         <v>22</v>
       </c>
-      <c r="Y16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>700</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>16</v>
-      </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>3.15</v>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>2.64</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="V17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.45</v>
       </c>
-      <c r="S17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.76</v>
-      </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>46</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
         <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO17" t="n">
         <v>29</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2.08</v>
       </c>
-      <c r="G18" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.89</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="V18" t="n">
-        <v>1.31</v>
+        <v>1.81</v>
       </c>
       <c r="W18" t="n">
-        <v>1.89</v>
+        <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG18" t="n">
         <v>16</v>
       </c>
-      <c r="Z18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>14.5</v>
+        <v>220</v>
       </c>
       <c r="AO18" t="n">
-        <v>600</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.66</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.68</v>
+        <v>2.14</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.88</v>
       </c>
-      <c r="U19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="X19" t="n">
         <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z19" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH19" t="n">
         <v>19.5</v>
       </c>
-      <c r="AG19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>18</v>
-      </c>
       <c r="AI19" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AN19" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>1.96</v>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.16</v>
+        <v>5.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.22</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>2.48</v>
       </c>
       <c r="O20" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="P20" t="n">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="S20" t="n">
-        <v>3.75</v>
+        <v>6.6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>2.48</v>
       </c>
       <c r="U20" t="n">
-        <v>2.04</v>
+        <v>1.64</v>
       </c>
       <c r="V20" t="n">
-        <v>1.82</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y20" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>9.6</v>
-      </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="n">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>5.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="n">
-        <v>42</v>
+        <v>700</v>
       </c>
       <c r="AJ20" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AN20" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AO20" t="n">
-        <v>42</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>1.84</v>
       </c>
       <c r="G21" t="n">
-        <v>4.4</v>
+        <v>1.88</v>
       </c>
       <c r="H21" t="n">
-        <v>2.06</v>
+        <v>5.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.08</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N21" t="n">
-        <v>3.3</v>
+        <v>2.52</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="P21" t="n">
-        <v>1.77</v>
+        <v>1.49</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.26</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="S21" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="V21" t="n">
-        <v>1.92</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.29</v>
+        <v>2.12</v>
       </c>
       <c r="X21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG21" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AH21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>21</v>
       </c>
-      <c r="AI21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>95</v>
-      </c>
       <c r="AK21" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AN21" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.98</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>2.02</v>
+        <v>3.15</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="L22" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="M22" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N22" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="O22" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="P22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.47</v>
       </c>
-      <c r="Q22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S22" t="n">
+      <c r="W22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X22" t="n">
         <v>6.6</v>
       </c>
-      <c r="T22" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="X22" t="n">
-        <v>7.4</v>
-      </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="Z22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA22" t="n">
         <v>55</v>
       </c>
-      <c r="AA22" t="n">
-        <v>700</v>
-      </c>
       <c r="AB22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>700</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI22" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AL22" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AM22" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AO22" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,395 +3488,125 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="G23" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.15</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.86</v>
-      </c>
       <c r="K23" t="n">
-        <v>2.94</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="M23" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="O23" t="n">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="P23" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="R23" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="V23" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC23" t="n">
-        <v>7</v>
-      </c>
       <c r="AD23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>21:15:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Independiente Rivadavia</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Sarmiento de Junin</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S24" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X24" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>21:45:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Boyaca Patriotas</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO25" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,102 +653,102 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:40:01</t>
+          <t>14:30:02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>950</v>
       </c>
       <c r="J2" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>1.64</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>8.4</v>
+        <v>50</v>
       </c>
       <c r="P2" t="n">
         <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>1.09</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>1.09</v>
       </c>
       <c r="T2" t="n">
-        <v>12</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>1.85</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.8</v>
+        <v>1.03</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>850</v>
       </c>
       <c r="AA2" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>22</v>
+        <v>850</v>
       </c>
       <c r="AD2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.92</v>
+        <v>1.03</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K3" t="n">
-        <v>2.08</v>
+        <v>36</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="O3" t="n">
-        <v>3.95</v>
+        <v>11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.5</v>
+        <v>100</v>
       </c>
       <c r="R3" t="n">
         <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="T3" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.47</v>
+        <v>21</v>
       </c>
       <c r="X3" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,34 +868,34 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.6</v>
+        <v>1.12</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>46</v>
+        <v>7.2</v>
       </c>
       <c r="I4" t="n">
-        <v>55</v>
+        <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>7.8</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>8.6</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,34 +961,34 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.64</v>
+        <v>3.85</v>
       </c>
       <c r="R4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.15</v>
       </c>
-      <c r="S4" t="n">
-        <v>7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W4" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,34 +1003,34 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>80</v>
       </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.39</v>
+        <v>14.5</v>
       </c>
       <c r="G5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.41</v>
       </c>
-      <c r="H5" t="n">
-        <v>18.5</v>
-      </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>1.43</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,79 +1096,79 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.24</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.79</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
         <v>5.5</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="AD5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE5" t="n">
         <v>30</v>
       </c>
-      <c r="T5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>880</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF5" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1177,13 +1177,13 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>21</v>
+        <v>1.67</v>
       </c>
       <c r="M6" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.04</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.9</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.9</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>9.800000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="T6" t="n">
-        <v>3.2</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
-        <v>1.41</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.9</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>490</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.1</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
-        <v>5.2</v>
+        <v>2.22</v>
       </c>
       <c r="H7" t="n">
-        <v>1.68</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.72</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.92</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>2.84</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="P7" t="n">
-        <v>2.7</v>
+        <v>1.58</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.56</v>
+        <v>2.64</v>
       </c>
       <c r="R7" t="n">
-        <v>1.66</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>2.44</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="X7" t="n">
-        <v>27</v>
+        <v>9.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.5</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>28</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="AN7" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>2.56</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.96</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>2.54</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
         <v>1.41</v>
@@ -1501,94 +1501,94 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="n">
         <v>13</v>
       </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>55</v>
       </c>
-      <c r="AB8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>36</v>
-      </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
         <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.4</v>
+        <v>3.55</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="I9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.78</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.28</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AA9" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF9" t="n">
         <v>25</v>
       </c>
-      <c r="AF9" t="n">
-        <v>60</v>
-      </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>70</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>240</v>
-      </c>
       <c r="AK9" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,87 +1733,87 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.28</v>
+        <v>2.66</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
         <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
         <v>9.6</v>
       </c>
-      <c r="Y10" t="n">
-        <v>7.8</v>
-      </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
         <v>6.8</v>
@@ -1822,43 +1822,43 @@
         <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
         <v>16.5</v>
       </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
       <c r="AI10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>55</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>900</v>
-      </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>48</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="G11" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
         <v>4.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA11" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
         <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
       </c>
       <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>36</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>430</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="G12" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
         <v>4.6</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.6</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.56</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>920</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH12" t="n">
         <v>24</v>
       </c>
-      <c r="Z12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AI12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM12" t="n">
         <v>130</v>
       </c>
-      <c r="AB12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>75</v>
-      </c>
       <c r="AN12" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>1.97</v>
       </c>
       <c r="H13" t="n">
-        <v>2.44</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.52</v>
+        <v>4.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.65</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.43</v>
+        <v>2.02</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AB13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF13" t="n">
         <v>13</v>
       </c>
-      <c r="AC13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>22</v>
-      </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO13" t="n">
         <v>55</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.45</v>
+        <v>4.6</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>2.04</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>2.06</v>
       </c>
       <c r="J14" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>5.2</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>4.6</v>
+        <v>2.96</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="P14" t="n">
-        <v>2.22</v>
+        <v>1.64</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="S14" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.96</v>
       </c>
       <c r="W14" t="n">
-        <v>3.05</v>
+        <v>1.26</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="Z14" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF14" t="n">
         <v>32</v>
       </c>
-      <c r="AE14" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="n">
-        <v>15.5</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="AO14" t="n">
-        <v>150</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.26</v>
+        <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>2.48</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>2.48</v>
       </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="W15" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>7.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AB15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG15" t="n">
         <v>12</v>
       </c>
-      <c r="AC15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>700</v>
       </c>
       <c r="AJ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK15" t="n">
         <v>30</v>
       </c>
-      <c r="AK15" t="n">
-        <v>22</v>
-      </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AN15" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>2.52</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.63</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>1.49</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>6.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>2.52</v>
       </c>
       <c r="U16" t="n">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="X16" t="n">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AA16" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>5.6</v>
       </c>
       <c r="AC16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN16" t="n">
         <v>22</v>
       </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>14</v>
-      </c>
       <c r="AO16" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
         <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="K17" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="L17" t="n">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>2.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
-        <v>1.81</v>
+        <v>1.43</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>1.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD17" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE17" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="AM17" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="AN17" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,801 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="G18" t="n">
         <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="I18" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="V18" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="W18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z18" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>13</v>
-      </c>
       <c r="AA18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF18" t="n">
         <v>24</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>26</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>St Mirren</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Hearts</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Banfield</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Estudiantes Rio Cuarto</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH20" t="n">
         <v>32</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>21:15:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Independiente Rivadavia</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Sarmiento de Junin</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X21" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>21:15:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Instituto</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Lanus</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>21:45:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Boyaca Patriotas</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X23" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:02</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,94 +691,94 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:04</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -808,16 +808,16 @@
         <v>1.04</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>36</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.12</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>4.9</v>
       </c>
       <c r="H4" t="n">
         <v>7.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>1.51</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>1.56</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,34 +961,34 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.85</v>
+        <v>2.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="S4" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="T4" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,52 +1003,52 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.8</v>
+        <v>1.58</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="H5" t="n">
-        <v>1.41</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>1.43</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,94 +1096,94 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.06</v>
+        <v>100</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>1.03</v>
       </c>
       <c r="AO5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.93</v>
+        <v>4.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>180</v>
       </c>
       <c r="W6" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>130</v>
+        <v>1.52</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>7.4</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>100</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.16</v>
+        <v>8.4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>980</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1.08</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>1.12</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>9.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.84</v>
+        <v>1.23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.51</v>
+        <v>4.6</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58</v>
+        <v>1.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.64</v>
+        <v>22</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="S7" t="n">
-        <v>5.3</v>
+        <v>50</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>6.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>1.23</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>19.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>960</v>
       </c>
       <c r="AE7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.54</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>1.84</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>1.86</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.82</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>1.19</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>5.7</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>30</v>
       </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>130</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>10</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>1.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.64</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>2.14</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="AA8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>4.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>17.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>180</v>
       </c>
       <c r="AE8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.55</v>
+        <v>1.96</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>1.99</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.28</v>
+        <v>5.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>2.48</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="P9" t="n">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>3.05</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>1.63</v>
       </c>
       <c r="V9" t="n">
-        <v>1.78</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>23</v>
       </c>
-      <c r="AF9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>70</v>
-      </c>
       <c r="AK9" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AN9" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>17.5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G10" t="n">
         <v>3.25</v>
       </c>
-      <c r="G10" t="n">
-        <v>3.3</v>
-      </c>
       <c r="H10" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="L10" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.26</v>
+        <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="S10" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>2.36</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>1.68</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
         <v>1.44</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG10" t="n">
         <v>16</v>
       </c>
-      <c r="AA10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="AN10" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="G11" t="n">
-        <v>2.18</v>
+        <v>1.87</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>2.54</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>1.49</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>6.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="W11" t="n">
-        <v>1.84</v>
+        <v>2.14</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="AB11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG11" t="n">
         <v>12</v>
       </c>
-      <c r="AC11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="AJ11" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,936 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.48</v>
+        <v>3.45</v>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>2.32</v>
       </c>
       <c r="I12" t="n">
-        <v>8.4</v>
+        <v>2.42</v>
       </c>
       <c r="J12" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S12" t="n">
         <v>5</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="V12" t="n">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>2.94</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>70</v>
+        <v>13.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>920</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Rochdale</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Boreham Wood</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>St Mirren</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Hearts</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Banfield</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Estudiantes Rio Cuarto</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="X15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>21:15:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Independiente Rivadavia</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Sarmiento de Junin</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="X16" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>21:15:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Instituto</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Lanus</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>21:45:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Boyaca Patriotas</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.95</v>
       </c>
-      <c r="H2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.2</v>
-      </c>
       <c r="J2" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="K2" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.78</v>
+        <v>2.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.26</v>
+        <v>1.59</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>8.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,25 +736,25 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.81</v>
+        <v>2.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.6</v>
+        <v>4.9</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,16 +763,16 @@
         <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN2" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>1.03</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>1.05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.92</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>2.96</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>29</v>
       </c>
       <c r="K3" t="n">
-        <v>2.92</v>
+        <v>840</v>
       </c>
       <c r="L3" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.15</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.32</v>
+        <v>1.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.45</v>
+        <v>28</v>
       </c>
       <c r="X3" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>18.5</v>
+        <v>2.66</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>65</v>
+        <v>4.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>280</v>
+        <v>13.5</v>
       </c>
       <c r="AL3" t="n">
         <v>95</v>
       </c>
       <c r="AM3" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>80</v>
+        <v>10.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,261 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.63</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.49</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.94</v>
+        <v>2.48</v>
       </c>
       <c r="R4" t="n">
         <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.64</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
         <v>8.6</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>330</v>
+        <v>470</v>
       </c>
       <c r="AN4" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="AO4" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21:45:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Boyaca Patriotas</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>960</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
